--- a/permit/doc/角色字段-20160520.xlsx
+++ b/permit/doc/角色字段-20160520.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="15495"/>
@@ -93,336 +93,552 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>普通文本</t>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205683.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个镇街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商服用地（商业商务用地）；城镇住宅用地（二类居住用地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张槎街道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞得时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年10月12日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地规划用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山铂晟置业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业服务业设施用地、兼容办公、文化娱乐用地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年1月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增施工许可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅城区玉带路16号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年1月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证时各栋已建层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多行文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多行文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将“开发商”改为“建设单位”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将“许可内容”改为规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不计容建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增规划许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取新增规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业办公建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下车库建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下车库建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增预售证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公安门牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增现售备案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请现售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请现售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下车库建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计容建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受让人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地出让合同号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>佛禅（挂）2010—010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普通文本</t>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>205683.81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可选文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个镇街</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商服用地（商业商务用地）；城镇住宅用地（二类居住用地）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张槎街道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞得时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年月日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014年10月12日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地规划用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>佛山铂晟置业有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>佛山铂晟置业有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业服务业设施用地、兼容办公、文化娱乐用地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015年1月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增施工许可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禅城区玉带路16号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015年1月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证时各栋已建层数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多行文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多行文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国土</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200000</t>
+    <t>440823-2007-000015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -430,27 +646,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>440823-2007-000015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将“开发商”改为“建设单位”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将“许可内容”改为规划许可证号</t>
+    <t>规划许可证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -458,203 +654,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不计容建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增规划许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓取新增规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业办公建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下车库建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下车库建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增预售证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公安门牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备案证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增现售备案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请现售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请现售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下车库建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计容建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受让人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地出让合同号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建设单位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1511,6 +1511,87 @@
     <xf numFmtId="49" fontId="3" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1535,15 +1616,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1558,78 +1630,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="119">
@@ -2052,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2085,7 +2085,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>10</v>
@@ -2098,10 +2098,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="59" t="s">
+      <c r="A2" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2120,14 +2120,14 @@
         <v>12</v>
       </c>
       <c r="H2" s="6"/>
-      <c r="I2" s="68" t="s">
-        <v>18</v>
+      <c r="I2" s="42" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="59" t="s">
-        <v>34</v>
+      <c r="A3" s="61"/>
+      <c r="B3" s="33" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -2142,42 +2142,42 @@
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="68" t="s">
-        <v>38</v>
+      <c r="I3" s="42" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="68" t="s">
-        <v>61</v>
+      <c r="I4" s="42" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
-      <c r="B5" s="59" t="s">
-        <v>21</v>
+      <c r="A5" s="61"/>
+      <c r="B5" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -2186,19 +2186,19 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="68" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
-      <c r="B6" s="59" t="s">
-        <v>22</v>
+      <c r="A6" s="61"/>
+      <c r="B6" s="33" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -2207,38 +2207,38 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="68" t="s">
-        <v>37</v>
+      <c r="I6" s="42" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
-      <c r="B7" s="60" t="s">
-        <v>153</v>
+      <c r="A7" s="61"/>
+      <c r="B7" s="34" t="s">
+        <v>148</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="69" t="s">
-        <v>92</v>
+        <v>24</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="34"/>
-      <c r="B8" s="59" t="s">
-        <v>27</v>
+      <c r="A8" s="61"/>
+      <c r="B8" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -2247,19 +2247,19 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="68" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="34"/>
-      <c r="B9" s="60" t="s">
-        <v>120</v>
+      <c r="A9" s="61"/>
+      <c r="B9" s="34" t="s">
+        <v>115</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>6</v>
@@ -2268,19 +2268,19 @@
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="69" t="s">
-        <v>121</v>
+      <c r="I9" s="43" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="34"/>
-      <c r="B10" s="59" t="s">
-        <v>30</v>
+      <c r="A10" s="61"/>
+      <c r="B10" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
@@ -2289,103 +2289,103 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="68" t="s">
-        <v>33</v>
+      <c r="I10" s="42" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="34"/>
-      <c r="B11" s="60" t="s">
-        <v>110</v>
+      <c r="A11" s="61"/>
+      <c r="B11" s="34" t="s">
+        <v>105</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="69" t="s">
-        <v>95</v>
+        <v>24</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="34"/>
-      <c r="B12" s="60" t="s">
-        <v>152</v>
+      <c r="A12" s="61"/>
+      <c r="B12" s="34" t="s">
+        <v>147</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="69" t="s">
-        <v>93</v>
+        <v>24</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
-      <c r="B13" s="60" t="s">
-        <v>85</v>
+      <c r="A13" s="61"/>
+      <c r="B13" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" s="69" t="s">
-        <v>94</v>
+      <c r="I13" s="43" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
-      <c r="B14" s="59" t="s">
-        <v>88</v>
+      <c r="A14" s="61"/>
+      <c r="B14" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="68" t="s">
-        <v>101</v>
+      <c r="I14" s="42" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="34"/>
-      <c r="B15" s="59" t="s">
-        <v>154</v>
+      <c r="A15" s="61"/>
+      <c r="B15" s="33" t="s">
+        <v>149</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>6</v>
@@ -2394,17 +2394,17 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="68" t="s">
-        <v>49</v>
+      <c r="I15" s="42" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
-      <c r="B16" s="59" t="s">
-        <v>39</v>
+      <c r="A16" s="61"/>
+      <c r="B16" s="33" t="s">
+        <v>38</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>6</v>
@@ -2413,19 +2413,19 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="68" t="s">
-        <v>46</v>
+      <c r="I16" s="42" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
-      <c r="B17" s="59" t="s">
-        <v>40</v>
+      <c r="A17" s="61"/>
+      <c r="B17" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>6</v>
@@ -2434,55 +2434,55 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="68" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="34"/>
-      <c r="B18" s="60" t="s">
-        <v>155</v>
+      <c r="A18" s="61"/>
+      <c r="B18" s="34" t="s">
+        <v>150</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H18" s="27"/>
-      <c r="I18" s="69" t="s">
-        <v>103</v>
+      <c r="I18" s="43" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
-      <c r="B19" s="60" t="s">
-        <v>156</v>
+      <c r="A19" s="62"/>
+      <c r="B19" s="34" t="s">
+        <v>151</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H19" s="27"/>
-      <c r="I19" s="69" t="s">
-        <v>102</v>
+      <c r="I19" s="43" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -2508,10 +2508,10 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="61" t="s">
+      <c r="A22" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="13"/>
@@ -2519,118 +2519,118 @@
         <v>9</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22" s="13"/>
-      <c r="I22" s="70" t="s">
+      <c r="I22" s="44" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="39"/>
-      <c r="B23" s="61" t="s">
-        <v>48</v>
+      <c r="A23" s="66"/>
+      <c r="B23" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" s="13"/>
-      <c r="I23" s="70" t="s">
-        <v>51</v>
+      <c r="I23" s="44" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="39"/>
-      <c r="B24" s="60" t="s">
-        <v>157</v>
+      <c r="A24" s="66"/>
+      <c r="B24" s="34" t="s">
+        <v>159</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="I24" s="69" t="s">
-        <v>50</v>
+        <v>103</v>
+      </c>
+      <c r="I24" s="43" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="39"/>
-      <c r="B25" s="60" t="s">
-        <v>158</v>
+      <c r="A25" s="66"/>
+      <c r="B25" s="34" t="s">
+        <v>152</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="27" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="69"/>
+        <v>104</v>
+      </c>
+      <c r="I25" s="43"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="39"/>
-      <c r="B26" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="39"/>
-      <c r="B27" s="61" t="s">
-        <v>159</v>
+      <c r="A27" s="66"/>
+      <c r="B27" s="35" t="s">
+        <v>157</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="39"/>
-      <c r="B28" s="61" t="s">
-        <v>52</v>
+      <c r="A28" s="66"/>
+      <c r="B28" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
@@ -2639,220 +2639,220 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="70" t="s">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c r="I28" s="44" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="39"/>
-      <c r="B29" s="60" t="s">
-        <v>109</v>
+      <c r="A29" s="66"/>
+      <c r="B29" s="34" t="s">
+        <v>158</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="69" t="s">
-        <v>92</v>
+        <v>24</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="39"/>
-      <c r="B30" s="61" t="s">
-        <v>27</v>
+      <c r="A30" s="66"/>
+      <c r="B30" s="35" t="s">
+        <v>26</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="70" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="I30" s="44" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="39"/>
-      <c r="B31" s="61" t="s">
-        <v>28</v>
+      <c r="A31" s="66"/>
+      <c r="B31" s="35" t="s">
+        <v>27</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="70" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="I31" s="44" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="39"/>
-      <c r="B32" s="61" t="s">
-        <v>29</v>
+      <c r="A32" s="66"/>
+      <c r="B32" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="70" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="I32" s="44" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="39"/>
-      <c r="B33" s="61" t="s">
-        <v>30</v>
+      <c r="A33" s="66"/>
+      <c r="B33" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="70" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="I33" s="44" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="39"/>
-      <c r="B34" s="60" t="s">
-        <v>110</v>
+      <c r="A34" s="66"/>
+      <c r="B34" s="34" t="s">
+        <v>105</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="69" t="s">
-        <v>95</v>
+        <v>24</v>
+      </c>
+      <c r="I34" s="43" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="39"/>
-      <c r="B35" s="60" t="s">
-        <v>128</v>
+      <c r="A35" s="66"/>
+      <c r="B35" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" s="69" t="s">
-        <v>93</v>
+        <v>24</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="39"/>
-      <c r="B36" s="60" t="s">
-        <v>85</v>
+      <c r="A36" s="66"/>
+      <c r="B36" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="27" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="I36" s="69" t="s">
-        <v>94</v>
+        <v>119</v>
+      </c>
+      <c r="I36" s="43" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="40"/>
-      <c r="B37" s="60" t="s">
-        <v>122</v>
+      <c r="A37" s="67"/>
+      <c r="B37" s="34" t="s">
+        <v>117</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="I37" s="69" t="s">
-        <v>101</v>
+        <v>145</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2878,74 +2878,74 @@
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
+      <c r="A40" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="37"/>
-      <c r="B41" s="62" t="s">
-        <v>59</v>
+      <c r="A41" s="64"/>
+      <c r="B41" s="36" t="s">
+        <v>57</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="37"/>
-      <c r="B42" s="62" t="s">
-        <v>60</v>
+      <c r="A42" s="64"/>
+      <c r="B42" s="36" t="s">
+        <v>58</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I42" s="71" t="s">
-        <v>63</v>
+        <v>43</v>
+      </c>
+      <c r="I42" s="45" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="25"/>
-      <c r="B43" s="60" t="s">
-        <v>147</v>
+      <c r="B43" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I43" s="27"/>
     </row>
@@ -2961,410 +2961,410 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="63" t="s">
-        <v>64</v>
+      <c r="A45" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>62</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="50"/>
-      <c r="B46" s="64" t="s">
-        <v>136</v>
+      <c r="A46" s="51"/>
+      <c r="B46" s="38" t="s">
+        <v>131</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="51"/>
-      <c r="B47" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="48"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="72"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="51"/>
-      <c r="B48" s="65" t="s">
-        <v>69</v>
+      <c r="A48" s="52"/>
+      <c r="B48" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="51"/>
-      <c r="B49" s="65" t="s">
-        <v>70</v>
+      <c r="A49" s="52"/>
+      <c r="B49" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="51"/>
-      <c r="B50" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="43"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="49"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="51"/>
-      <c r="B51" s="65" t="s">
-        <v>71</v>
+      <c r="A51" s="52"/>
+      <c r="B51" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="51"/>
-      <c r="B52" s="65" t="s">
-        <v>72</v>
+      <c r="A52" s="52"/>
+      <c r="B52" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="51"/>
-      <c r="B53" s="65" t="s">
-        <v>73</v>
+      <c r="A53" s="52"/>
+      <c r="B53" s="39" t="s">
+        <v>71</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="51"/>
-      <c r="B54" s="65" t="s">
-        <v>74</v>
+      <c r="A54" s="52"/>
+      <c r="B54" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="51"/>
-      <c r="B55" s="65" t="s">
-        <v>75</v>
+      <c r="A55" s="52"/>
+      <c r="B55" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="51"/>
-      <c r="B56" s="65" t="s">
-        <v>76</v>
+      <c r="A56" s="52"/>
+      <c r="B56" s="39" t="s">
+        <v>74</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I56" s="18"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="51"/>
-      <c r="B57" s="65" t="s">
-        <v>77</v>
+      <c r="A57" s="52"/>
+      <c r="B57" s="39" t="s">
+        <v>75</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I57" s="18"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="51"/>
-      <c r="B58" s="65" t="s">
-        <v>78</v>
+      <c r="A58" s="52"/>
+      <c r="B58" s="39" t="s">
+        <v>76</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I58" s="18"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="51"/>
-      <c r="B59" s="65" t="s">
-        <v>79</v>
+      <c r="A59" s="52"/>
+      <c r="B59" s="39" t="s">
+        <v>77</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I59" s="18"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="51"/>
-      <c r="B60" s="65" t="s">
-        <v>80</v>
+      <c r="A60" s="52"/>
+      <c r="B60" s="39" t="s">
+        <v>78</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I60" s="18"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="51"/>
-      <c r="B61" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="43"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="49"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="51"/>
-      <c r="B62" s="66" t="s">
-        <v>129</v>
+      <c r="A62" s="52"/>
+      <c r="B62" s="40" t="s">
+        <v>124</v>
       </c>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
       <c r="F62" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H62" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I62" s="29"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="52"/>
+      <c r="B63" s="40" t="s">
         <v>125</v>
-      </c>
-      <c r="I62" s="29"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="51"/>
-      <c r="B63" s="66" t="s">
-        <v>130</v>
       </c>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
       <c r="F63" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I63" s="29"/>
     </row>
     <row r="64" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="51"/>
-      <c r="B64" s="65" t="s">
+      <c r="A64" s="52"/>
+      <c r="B64" s="39" t="s">
         <v>14</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H64" s="4"/>
-      <c r="I64" s="72" t="s">
+      <c r="I64" s="46" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="51"/>
-      <c r="B65" s="65" t="s">
-        <v>65</v>
+      <c r="A65" s="52"/>
+      <c r="B65" s="39" t="s">
+        <v>63</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H65" s="4"/>
-      <c r="I65" s="72" t="s">
-        <v>66</v>
+      <c r="I65" s="46" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="51"/>
-      <c r="B66" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="55"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="56"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="51"/>
-      <c r="B67" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="43"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="49"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="51"/>
-      <c r="B68" s="66" t="s">
-        <v>142</v>
+      <c r="A68" s="52"/>
+      <c r="B68" s="40" t="s">
+        <v>137</v>
       </c>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -3376,234 +3376,234 @@
         <v>11</v>
       </c>
       <c r="H68" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I68" s="30"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="51"/>
-      <c r="B69" s="66" t="s">
-        <v>143</v>
+      <c r="A69" s="52"/>
+      <c r="B69" s="40" t="s">
+        <v>138</v>
       </c>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
       <c r="F69" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H69" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="51"/>
-      <c r="B70" s="66" t="s">
-        <v>73</v>
+      <c r="A70" s="52"/>
+      <c r="B70" s="40" t="s">
+        <v>71</v>
       </c>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
       <c r="F70" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H70" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I70" s="30"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="51"/>
-      <c r="B71" s="66" t="s">
-        <v>74</v>
+      <c r="A71" s="52"/>
+      <c r="B71" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
       <c r="F71" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I71" s="30"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="51"/>
-      <c r="B72" s="66" t="s">
-        <v>75</v>
+      <c r="A72" s="52"/>
+      <c r="B72" s="40" t="s">
+        <v>73</v>
       </c>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
       <c r="F72" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H72" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="51"/>
-      <c r="B73" s="66" t="s">
-        <v>76</v>
+      <c r="A73" s="52"/>
+      <c r="B73" s="40" t="s">
+        <v>74</v>
       </c>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
       <c r="F73" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G73" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H73" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="51"/>
-      <c r="B74" s="66" t="s">
-        <v>77</v>
+      <c r="A74" s="52"/>
+      <c r="B74" s="40" t="s">
+        <v>75</v>
       </c>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G74" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H74" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I74" s="30"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="51"/>
-      <c r="B75" s="66" t="s">
-        <v>78</v>
+      <c r="A75" s="52"/>
+      <c r="B75" s="40" t="s">
+        <v>76</v>
       </c>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
       <c r="F75" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H75" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I75" s="30"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="51"/>
-      <c r="B76" s="66" t="s">
-        <v>79</v>
+      <c r="A76" s="52"/>
+      <c r="B76" s="40" t="s">
+        <v>77</v>
       </c>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
       <c r="F76" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G76" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H76" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I76" s="30"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="51"/>
-      <c r="B77" s="66" t="s">
-        <v>80</v>
+      <c r="A77" s="52"/>
+      <c r="B77" s="40" t="s">
+        <v>78</v>
       </c>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
       <c r="F77" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I77" s="30"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="51"/>
-      <c r="B78" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C78" s="42"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="43"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="49"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="51"/>
-      <c r="B79" s="66" t="s">
-        <v>129</v>
+      <c r="A79" s="52"/>
+      <c r="B79" s="40" t="s">
+        <v>124</v>
       </c>
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
       <c r="F79" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H79" s="26" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I79" s="29"/>
     </row>
     <row r="80" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="51"/>
-      <c r="B80" s="67" t="s">
-        <v>30</v>
+      <c r="A80" s="52"/>
+      <c r="B80" s="41" t="s">
+        <v>29</v>
       </c>
       <c r="C80" s="31"/>
       <c r="D80" s="31"/>
       <c r="E80" s="31"/>
       <c r="F80" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H80" s="31" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I80" s="32"/>
     </row>
     <row r="81" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="51"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="22"/>
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
@@ -3614,22 +3614,22 @@
       <c r="I81" s="24"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="51"/>
-      <c r="B82" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="47"/>
-      <c r="H82" s="47"/>
-      <c r="I82" s="48"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" s="71"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="72"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="51"/>
-      <c r="B83" s="65" t="s">
-        <v>138</v>
+      <c r="A83" s="52"/>
+      <c r="B83" s="39" t="s">
+        <v>133</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -3638,15 +3638,15 @@
         <v>6</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="18"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="51"/>
-      <c r="B84" s="65" t="s">
-        <v>60</v>
+      <c r="A84" s="52"/>
+      <c r="B84" s="39" t="s">
+        <v>58</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3655,529 +3655,529 @@
         <v>6</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="18"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="51"/>
-      <c r="B85" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="C85" s="57"/>
-      <c r="D85" s="57"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="57"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="57"/>
-      <c r="I85" s="58"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="58"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="58"/>
+      <c r="I85" s="59"/>
     </row>
     <row r="86" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A86" s="51"/>
-      <c r="B86" s="65" t="s">
-        <v>144</v>
+      <c r="A86" s="52"/>
+      <c r="B86" s="39" t="s">
+        <v>139</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G86" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H86" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="I86" s="18"/>
     </row>
     <row r="87" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A87" s="51"/>
-      <c r="B87" s="65" t="s">
-        <v>145</v>
+      <c r="A87" s="52"/>
+      <c r="B87" s="39" t="s">
+        <v>140</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I87" s="18"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="51"/>
-      <c r="B88" s="65" t="s">
-        <v>73</v>
+      <c r="A88" s="52"/>
+      <c r="B88" s="39" t="s">
+        <v>71</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I88" s="18"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="51"/>
-      <c r="B89" s="65" t="s">
-        <v>74</v>
+      <c r="A89" s="52"/>
+      <c r="B89" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I89" s="18"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="51"/>
-      <c r="B90" s="65" t="s">
-        <v>75</v>
+      <c r="A90" s="52"/>
+      <c r="B90" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I90" s="18"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="51"/>
-      <c r="B91" s="65" t="s">
-        <v>76</v>
+      <c r="A91" s="52"/>
+      <c r="B91" s="39" t="s">
+        <v>74</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I91" s="18"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="51"/>
-      <c r="B92" s="65" t="s">
-        <v>77</v>
+      <c r="A92" s="52"/>
+      <c r="B92" s="39" t="s">
+        <v>75</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I92" s="18"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="51"/>
-      <c r="B93" s="65" t="s">
-        <v>78</v>
+      <c r="A93" s="52"/>
+      <c r="B93" s="39" t="s">
+        <v>76</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I93" s="18"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="51"/>
-      <c r="B94" s="65" t="s">
-        <v>79</v>
+      <c r="A94" s="52"/>
+      <c r="B94" s="39" t="s">
+        <v>77</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I94" s="18"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="51"/>
-      <c r="B95" s="65" t="s">
-        <v>80</v>
+      <c r="A95" s="52"/>
+      <c r="B95" s="39" t="s">
+        <v>78</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I95" s="18"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="51"/>
-      <c r="B96" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="43"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="48"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="49"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="51"/>
-      <c r="B97" s="66" t="s">
-        <v>129</v>
+      <c r="A97" s="52"/>
+      <c r="B97" s="40" t="s">
+        <v>124</v>
       </c>
       <c r="C97" s="26"/>
       <c r="D97" s="26"/>
       <c r="E97" s="26"/>
       <c r="F97" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G97" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H97" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I97" s="29"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A98" s="52"/>
+      <c r="B98" s="40" t="s">
         <v>125</v>
-      </c>
-      <c r="I97" s="29"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="51"/>
-      <c r="B98" s="66" t="s">
-        <v>130</v>
       </c>
       <c r="C98" s="26"/>
       <c r="D98" s="26"/>
       <c r="E98" s="26"/>
       <c r="F98" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G98" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H98" s="26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I98" s="29"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="51"/>
-      <c r="B99" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="54"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="54"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="54"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="55"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="56"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="51"/>
-      <c r="B100" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="C100" s="42"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="43"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C100" s="48"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="49"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="51"/>
-      <c r="B101" s="66" t="s">
-        <v>81</v>
+      <c r="A101" s="52"/>
+      <c r="B101" s="40" t="s">
+        <v>79</v>
       </c>
       <c r="C101" s="27"/>
       <c r="D101" s="27"/>
       <c r="E101" s="27"/>
       <c r="F101" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G101" s="27" t="s">
         <v>11</v>
       </c>
       <c r="H101" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I101" s="30"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102" s="51"/>
-      <c r="B102" s="66" t="s">
-        <v>82</v>
+      <c r="A102" s="52"/>
+      <c r="B102" s="40" t="s">
+        <v>80</v>
       </c>
       <c r="C102" s="27"/>
       <c r="D102" s="27"/>
       <c r="E102" s="27"/>
       <c r="F102" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G102" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H102" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I102" s="30"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103" s="51"/>
-      <c r="B103" s="66" t="s">
-        <v>73</v>
+      <c r="A103" s="52"/>
+      <c r="B103" s="40" t="s">
+        <v>71</v>
       </c>
       <c r="C103" s="27"/>
       <c r="D103" s="27"/>
       <c r="E103" s="27"/>
       <c r="F103" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G103" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H103" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I103" s="30"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="51"/>
-      <c r="B104" s="66" t="s">
-        <v>74</v>
+      <c r="A104" s="52"/>
+      <c r="B104" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="C104" s="27"/>
       <c r="D104" s="27"/>
       <c r="E104" s="27"/>
       <c r="F104" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G104" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H104" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I104" s="30"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105" s="51"/>
-      <c r="B105" s="66" t="s">
-        <v>75</v>
+      <c r="A105" s="52"/>
+      <c r="B105" s="40" t="s">
+        <v>73</v>
       </c>
       <c r="C105" s="27"/>
       <c r="D105" s="27"/>
       <c r="E105" s="27"/>
       <c r="F105" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G105" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H105" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I105" s="30"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106" s="51"/>
-      <c r="B106" s="66" t="s">
-        <v>76</v>
+      <c r="A106" s="52"/>
+      <c r="B106" s="40" t="s">
+        <v>74</v>
       </c>
       <c r="C106" s="27"/>
       <c r="D106" s="27"/>
       <c r="E106" s="27"/>
       <c r="F106" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G106" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H106" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I106" s="30"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="51"/>
-      <c r="B107" s="66" t="s">
-        <v>77</v>
+      <c r="A107" s="52"/>
+      <c r="B107" s="40" t="s">
+        <v>75</v>
       </c>
       <c r="C107" s="27"/>
       <c r="D107" s="27"/>
       <c r="E107" s="27"/>
       <c r="F107" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G107" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H107" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I107" s="30"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="51"/>
-      <c r="B108" s="66" t="s">
-        <v>78</v>
+      <c r="A108" s="52"/>
+      <c r="B108" s="40" t="s">
+        <v>76</v>
       </c>
       <c r="C108" s="27"/>
       <c r="D108" s="27"/>
       <c r="E108" s="27"/>
       <c r="F108" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H108" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I108" s="30"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="51"/>
-      <c r="B109" s="66" t="s">
-        <v>79</v>
+      <c r="A109" s="52"/>
+      <c r="B109" s="40" t="s">
+        <v>77</v>
       </c>
       <c r="C109" s="27"/>
       <c r="D109" s="27"/>
       <c r="E109" s="27"/>
       <c r="F109" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G109" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H109" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I109" s="30"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A110" s="51"/>
-      <c r="B110" s="66" t="s">
-        <v>80</v>
+      <c r="A110" s="52"/>
+      <c r="B110" s="40" t="s">
+        <v>78</v>
       </c>
       <c r="C110" s="27"/>
       <c r="D110" s="27"/>
       <c r="E110" s="27"/>
       <c r="F110" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G110" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H110" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I110" s="30"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A111" s="51"/>
-      <c r="B111" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C111" s="42"/>
-      <c r="D111" s="42"/>
-      <c r="E111" s="42"/>
-      <c r="F111" s="42"/>
-      <c r="G111" s="42"/>
-      <c r="H111" s="42"/>
-      <c r="I111" s="43"/>
+      <c r="A111" s="52"/>
+      <c r="B111" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" s="48"/>
+      <c r="D111" s="48"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="48"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="49"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A112" s="51"/>
-      <c r="B112" s="66" t="s">
-        <v>129</v>
+      <c r="A112" s="52"/>
+      <c r="B112" s="40" t="s">
+        <v>124</v>
       </c>
       <c r="C112" s="26"/>
       <c r="D112" s="26"/>
       <c r="E112" s="26"/>
       <c r="F112" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H112" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I112" s="29"/>
+    </row>
+    <row r="113" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="53"/>
+      <c r="B113" s="41" t="s">
         <v>125</v>
-      </c>
-      <c r="I112" s="29"/>
-    </row>
-    <row r="113" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="52"/>
-      <c r="B113" s="67" t="s">
-        <v>130</v>
       </c>
       <c r="C113" s="31"/>
       <c r="D113" s="31"/>
       <c r="E113" s="31"/>
       <c r="F113" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G113" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H113" s="31" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I113" s="32"/>
     </row>
@@ -4205,6 +4205,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="B100:I100"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B82:I82"/>
     <mergeCell ref="B111:I111"/>
     <mergeCell ref="A45:A113"/>
     <mergeCell ref="B99:I99"/>
@@ -4215,14 +4223,6 @@
     <mergeCell ref="B66:I66"/>
     <mergeCell ref="B67:I67"/>
     <mergeCell ref="B78:I78"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A22:A37"/>
-    <mergeCell ref="B100:I100"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B82:I82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/permit/doc/角色字段-20160520.xlsx
+++ b/permit/doc/角色字段-20160520.xlsx
@@ -207,42 +207,446 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>佛山铂晟置业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业服务业设施用地、兼容办公、文化娱乐用地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年1月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增施工许可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅城区玉带路16号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年1月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证时各栋已建层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多行文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多行文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将“开发商”改为“建设单位”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将“许可内容”改为规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不计容建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增规划许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取新增规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业办公建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下车库建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下车库建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增预售证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公安门牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增现售备案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请现售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请现售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下车库建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计容建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受让人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地出让合同号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛禅（挂）2010—010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山铂晟置业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440823-2007-000015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2007）第0600004号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设单位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>土地规划用途</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>佛山铂晟置业有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业服务业设施用地、兼容办公、文化娱乐用地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015年1月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增施工许可</t>
+    <t>规划许可证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -251,410 +655,6 @@
   </si>
   <si>
     <t>发证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禅城区玉带路16号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015年1月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证时各栋已建层数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多行文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多行文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国土</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将“开发商”改为“建设单位”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将“许可内容”改为规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不计容建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增规划许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓取新增规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业办公建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下车库建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下车库建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增预售证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公安门牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备案证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增现售备案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请现售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请现售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下车库建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计容建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受让人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地出让合同号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛禅（挂）2010—010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山铂晟置业有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>440823-2007-000015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2007）第0600004号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计容建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1553,6 +1553,30 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1562,6 +1586,21 @@
     <xf numFmtId="49" fontId="3" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1590,45 +1629,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2052,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2085,7 +2085,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>10</v>
@@ -2098,8 +2098,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="60" t="s">
-        <v>85</v>
+      <c r="A2" s="47" t="s">
+        <v>83</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>0</v>
@@ -2121,11 +2121,11 @@
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="61"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="33" t="s">
         <v>33</v>
       </c>
@@ -2152,7 +2152,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="61"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="33" t="s">
         <v>5</v>
       </c>
@@ -2163,19 +2163,19 @@
         <v>46</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="61"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="33" t="s">
         <v>20</v>
       </c>
@@ -2196,7 +2196,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="61"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="33" t="s">
         <v>21</v>
       </c>
@@ -2215,28 +2215,28 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="61"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="61"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="33" t="s">
         <v>26</v>
       </c>
@@ -2247,7 +2247,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>24</v>
@@ -2257,9 +2257,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="61"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>6</v>
@@ -2274,11 +2274,11 @@
         <v>24</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="61"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="33" t="s">
         <v>29</v>
       </c>
@@ -2299,93 +2299,93 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="61"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H11" s="27" t="s">
         <v>24</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="61"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>24</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="61"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>97</v>
-      </c>
       <c r="I13" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="61"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="I14" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="61"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>6</v>
@@ -2398,11 +2398,11 @@
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="61"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="33" t="s">
         <v>38</v>
       </c>
@@ -2423,7 +2423,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="61"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="33" t="s">
         <v>39</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>43</v>
@@ -2444,45 +2444,45 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="61"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="62"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -2508,8 +2508,8 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="65" t="s">
-        <v>102</v>
+      <c r="A22" s="52" t="s">
+        <v>100</v>
       </c>
       <c r="B22" s="35" t="s">
         <v>8</v>
@@ -2519,7 +2519,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13" t="s">
@@ -2531,16 +2531,16 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="66"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="35" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13" t="s">
@@ -2548,68 +2548,68 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="66"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="28" t="s">
         <v>18</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I24" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="66"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>18</v>
       </c>
       <c r="H25" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="53"/>
+      <c r="B26" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="I25" s="43"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="66"/>
-      <c r="B26" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="66"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="35" t="s">
         <v>157</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="14" t="s">
@@ -2628,9 +2628,9 @@
       <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="66"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
@@ -2639,40 +2639,40 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>43</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="66"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="34" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H29" s="27" t="s">
         <v>24</v>
       </c>
       <c r="I29" s="43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="66"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="35" t="s">
         <v>26</v>
       </c>
@@ -2681,11 +2681,11 @@
         <v>6</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>24</v>
@@ -2695,7 +2695,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="66"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="35" t="s">
         <v>27</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13" t="s">
@@ -2718,7 +2718,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="66"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="35" t="s">
         <v>28</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
@@ -2741,7 +2741,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="66"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="35" t="s">
         <v>29</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13" t="s">
@@ -2764,95 +2764,95 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="66"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H34" s="27" t="s">
         <v>24</v>
       </c>
       <c r="I34" s="43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="66"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H35" s="27" t="s">
         <v>24</v>
       </c>
       <c r="I35" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="66"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I36" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="67"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I37" s="43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2878,29 +2878,29 @@
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
+      <c r="A40" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="64"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="36" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16" t="s">
@@ -2910,42 +2910,42 @@
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="64"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="36" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H42" s="16" t="s">
         <v>43</v>
       </c>
       <c r="I42" s="45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="25"/>
       <c r="B43" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="H43" s="27" t="s">
         <v>144</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>146</v>
       </c>
       <c r="I43" s="27"/>
     </row>
@@ -2961,17 +2961,17 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="50" t="s">
-        <v>114</v>
+      <c r="A45" s="63" t="s">
+        <v>112</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>18</v>
@@ -2980,15 +2980,15 @@
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="51"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>18</v>
@@ -2997,28 +2997,28 @@
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="52"/>
-      <c r="B47" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="72"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="62"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="52"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>18</v>
@@ -3027,45 +3027,45 @@
       <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="52"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="52"/>
-      <c r="B50" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="49"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="57"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="52"/>
+      <c r="A51" s="65"/>
       <c r="B51" s="39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>23</v>
@@ -3076,34 +3076,34 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="52"/>
+      <c r="A52" s="65"/>
       <c r="B52" s="39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="52"/>
+      <c r="A53" s="65"/>
       <c r="B53" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>22</v>
@@ -3114,34 +3114,34 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="52"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="52"/>
+      <c r="A55" s="65"/>
       <c r="B55" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>22</v>
@@ -3152,34 +3152,34 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="52"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I56" s="18"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="52"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>22</v>
@@ -3190,34 +3190,34 @@
       <c r="I57" s="18"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="52"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I58" s="18"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="52"/>
+      <c r="A59" s="65"/>
       <c r="B59" s="39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>22</v>
@@ -3228,77 +3228,77 @@
       <c r="I59" s="18"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="52"/>
+      <c r="A60" s="65"/>
       <c r="B60" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I60" s="18"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="52"/>
-      <c r="B61" s="47" t="s">
+      <c r="A61" s="65"/>
+      <c r="B61" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="57"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" s="65"/>
+      <c r="B62" s="40" t="s">
         <v>122</v>
-      </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="49"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="52"/>
-      <c r="B62" s="40" t="s">
-        <v>124</v>
       </c>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
       <c r="F62" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I62" s="29"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="52"/>
+      <c r="A63" s="65"/>
       <c r="B63" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
       <c r="F63" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I63" s="29"/>
     </row>
     <row r="64" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="52"/>
+      <c r="A64" s="65"/>
       <c r="B64" s="39" t="s">
         <v>14</v>
       </c>
@@ -3306,10 +3306,10 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="46" t="s">
@@ -3317,54 +3317,54 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="52"/>
+      <c r="A65" s="65"/>
       <c r="B65" s="39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="52"/>
-      <c r="B66" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="56"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="69"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="52"/>
-      <c r="B67" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="49"/>
+      <c r="A67" s="65"/>
+      <c r="B67" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="57"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="52"/>
+      <c r="A68" s="65"/>
       <c r="B68" s="40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -3381,34 +3381,34 @@
       <c r="I68" s="30"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="52"/>
+      <c r="A69" s="65"/>
       <c r="B69" s="40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
       <c r="F69" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G69" s="27" t="s">
         <v>22</v>
       </c>
       <c r="H69" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="52"/>
+      <c r="A70" s="65"/>
       <c r="B70" s="40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
       <c r="F70" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G70" s="27" t="s">
         <v>22</v>
@@ -3419,34 +3419,34 @@
       <c r="I70" s="30"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="52"/>
+      <c r="A71" s="65"/>
       <c r="B71" s="40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
       <c r="F71" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G71" s="27" t="s">
         <v>22</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I71" s="30"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="52"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
       <c r="F72" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G72" s="27" t="s">
         <v>22</v>
@@ -3457,34 +3457,34 @@
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="52"/>
+      <c r="A73" s="65"/>
       <c r="B73" s="40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
       <c r="F73" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G73" s="27" t="s">
         <v>22</v>
       </c>
       <c r="H73" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="52"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G74" s="27" t="s">
         <v>22</v>
@@ -3495,34 +3495,34 @@
       <c r="I74" s="30"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="52"/>
+      <c r="A75" s="65"/>
       <c r="B75" s="40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
       <c r="F75" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G75" s="27" t="s">
         <v>22</v>
       </c>
       <c r="H75" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I75" s="30"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="52"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
       <c r="F76" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G76" s="27" t="s">
         <v>22</v>
@@ -3533,58 +3533,58 @@
       <c r="I76" s="30"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="52"/>
+      <c r="A77" s="65"/>
       <c r="B77" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
       <c r="F77" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G77" s="27" t="s">
         <v>22</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I77" s="30"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="52"/>
-      <c r="B78" s="47" t="s">
+      <c r="A78" s="65"/>
+      <c r="B78" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="57"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A79" s="65"/>
+      <c r="B79" s="40" t="s">
         <v>122</v>
-      </c>
-      <c r="C78" s="48"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="49"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="52"/>
-      <c r="B79" s="40" t="s">
-        <v>124</v>
       </c>
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
       <c r="F79" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H79" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I79" s="29"/>
     </row>
     <row r="80" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="52"/>
+      <c r="A80" s="65"/>
       <c r="B80" s="41" t="s">
         <v>29</v>
       </c>
@@ -3592,18 +3592,18 @@
       <c r="D80" s="31"/>
       <c r="E80" s="31"/>
       <c r="F80" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H80" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I80" s="32"/>
     </row>
     <row r="81" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="52"/>
+      <c r="A81" s="65"/>
       <c r="B81" s="22"/>
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
@@ -3614,22 +3614,22 @@
       <c r="I81" s="24"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="52"/>
-      <c r="B82" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="C82" s="71"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="72"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="61"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="62"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="52"/>
+      <c r="A83" s="65"/>
       <c r="B83" s="39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -3644,9 +3644,9 @@
       <c r="I83" s="18"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="52"/>
+      <c r="A84" s="65"/>
       <c r="B84" s="39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3655,34 +3655,34 @@
         <v>6</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="18"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="52"/>
-      <c r="B85" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="C85" s="58"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="58"/>
-      <c r="H85" s="58"/>
-      <c r="I85" s="59"/>
+      <c r="A85" s="65"/>
+      <c r="B85" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" s="71"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="71"/>
+      <c r="H85" s="71"/>
+      <c r="I85" s="72"/>
     </row>
     <row r="86" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A86" s="52"/>
+      <c r="A86" s="65"/>
       <c r="B86" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>23</v>
@@ -3693,34 +3693,34 @@
       <c r="I86" s="18"/>
     </row>
     <row r="87" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A87" s="52"/>
+      <c r="A87" s="65"/>
       <c r="B87" s="39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I87" s="18"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="52"/>
+      <c r="A88" s="65"/>
       <c r="B88" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>22</v>
@@ -3731,34 +3731,34 @@
       <c r="I88" s="18"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="52"/>
+      <c r="A89" s="65"/>
       <c r="B89" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I89" s="18"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="52"/>
+      <c r="A90" s="65"/>
       <c r="B90" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>22</v>
@@ -3769,34 +3769,34 @@
       <c r="I90" s="18"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="52"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I91" s="18"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="52"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>22</v>
@@ -3807,34 +3807,34 @@
       <c r="I92" s="18"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="52"/>
+      <c r="A93" s="65"/>
       <c r="B93" s="39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I93" s="18"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="52"/>
+      <c r="A94" s="65"/>
       <c r="B94" s="39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>22</v>
@@ -3845,111 +3845,111 @@
       <c r="I94" s="18"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="52"/>
+      <c r="A95" s="65"/>
       <c r="B95" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I95" s="18"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="52"/>
-      <c r="B96" s="47" t="s">
+      <c r="A96" s="65"/>
+      <c r="B96" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" s="56"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="57"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A97" s="65"/>
+      <c r="B97" s="40" t="s">
         <v>122</v>
-      </c>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="49"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="52"/>
-      <c r="B97" s="40" t="s">
-        <v>124</v>
       </c>
       <c r="C97" s="26"/>
       <c r="D97" s="26"/>
       <c r="E97" s="26"/>
       <c r="F97" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G97" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H97" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I97" s="29"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="52"/>
+      <c r="A98" s="65"/>
       <c r="B98" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C98" s="26"/>
       <c r="D98" s="26"/>
       <c r="E98" s="26"/>
       <c r="F98" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G98" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H98" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I98" s="29"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="52"/>
-      <c r="B99" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="55"/>
-      <c r="G99" s="55"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="56"/>
+      <c r="A99" s="65"/>
+      <c r="B99" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="68"/>
+      <c r="H99" s="68"/>
+      <c r="I99" s="69"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="52"/>
-      <c r="B100" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C100" s="48"/>
-      <c r="D100" s="48"/>
-      <c r="E100" s="48"/>
-      <c r="F100" s="48"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="49"/>
+      <c r="A100" s="65"/>
+      <c r="B100" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" s="56"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="56"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="57"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="52"/>
+      <c r="A101" s="65"/>
       <c r="B101" s="40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C101" s="27"/>
       <c r="D101" s="27"/>
       <c r="E101" s="27"/>
       <c r="F101" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G101" s="27" t="s">
         <v>11</v>
@@ -3960,34 +3960,34 @@
       <c r="I101" s="30"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102" s="52"/>
+      <c r="A102" s="65"/>
       <c r="B102" s="40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C102" s="27"/>
       <c r="D102" s="27"/>
       <c r="E102" s="27"/>
       <c r="F102" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G102" s="27" t="s">
         <v>22</v>
       </c>
       <c r="H102" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I102" s="30"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103" s="52"/>
+      <c r="A103" s="65"/>
       <c r="B103" s="40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C103" s="27"/>
       <c r="D103" s="27"/>
       <c r="E103" s="27"/>
       <c r="F103" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G103" s="27" t="s">
         <v>22</v>
@@ -3998,34 +3998,34 @@
       <c r="I103" s="30"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="52"/>
+      <c r="A104" s="65"/>
       <c r="B104" s="40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C104" s="27"/>
       <c r="D104" s="27"/>
       <c r="E104" s="27"/>
       <c r="F104" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G104" s="27" t="s">
         <v>22</v>
       </c>
       <c r="H104" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I104" s="30"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105" s="52"/>
+      <c r="A105" s="65"/>
       <c r="B105" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C105" s="27"/>
       <c r="D105" s="27"/>
       <c r="E105" s="27"/>
       <c r="F105" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G105" s="27" t="s">
         <v>22</v>
@@ -4036,34 +4036,34 @@
       <c r="I105" s="30"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106" s="52"/>
+      <c r="A106" s="65"/>
       <c r="B106" s="40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C106" s="27"/>
       <c r="D106" s="27"/>
       <c r="E106" s="27"/>
       <c r="F106" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G106" s="27" t="s">
         <v>22</v>
       </c>
       <c r="H106" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I106" s="30"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="52"/>
+      <c r="A107" s="65"/>
       <c r="B107" s="40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C107" s="27"/>
       <c r="D107" s="27"/>
       <c r="E107" s="27"/>
       <c r="F107" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G107" s="27" t="s">
         <v>22</v>
@@ -4074,34 +4074,34 @@
       <c r="I107" s="30"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="52"/>
+      <c r="A108" s="65"/>
       <c r="B108" s="40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C108" s="27"/>
       <c r="D108" s="27"/>
       <c r="E108" s="27"/>
       <c r="F108" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G108" s="27" t="s">
         <v>22</v>
       </c>
       <c r="H108" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I108" s="30"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="52"/>
+      <c r="A109" s="65"/>
       <c r="B109" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C109" s="27"/>
       <c r="D109" s="27"/>
       <c r="E109" s="27"/>
       <c r="F109" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G109" s="27" t="s">
         <v>22</v>
@@ -4112,72 +4112,72 @@
       <c r="I109" s="30"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A110" s="52"/>
+      <c r="A110" s="65"/>
       <c r="B110" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C110" s="27"/>
       <c r="D110" s="27"/>
       <c r="E110" s="27"/>
       <c r="F110" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G110" s="27" t="s">
         <v>22</v>
       </c>
       <c r="H110" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I110" s="30"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A111" s="52"/>
-      <c r="B111" s="47" t="s">
+      <c r="A111" s="65"/>
+      <c r="B111" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="56"/>
+      <c r="D111" s="56"/>
+      <c r="E111" s="56"/>
+      <c r="F111" s="56"/>
+      <c r="G111" s="56"/>
+      <c r="H111" s="56"/>
+      <c r="I111" s="57"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A112" s="65"/>
+      <c r="B112" s="40" t="s">
         <v>122</v>
-      </c>
-      <c r="C111" s="48"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="48"/>
-      <c r="F111" s="48"/>
-      <c r="G111" s="48"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="49"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A112" s="52"/>
-      <c r="B112" s="40" t="s">
-        <v>124</v>
       </c>
       <c r="C112" s="26"/>
       <c r="D112" s="26"/>
       <c r="E112" s="26"/>
       <c r="F112" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H112" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I112" s="29"/>
     </row>
     <row r="113" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="53"/>
+      <c r="A113" s="66"/>
       <c r="B113" s="41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C113" s="31"/>
       <c r="D113" s="31"/>
       <c r="E113" s="31"/>
       <c r="F113" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G113" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H113" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I113" s="32"/>
     </row>
@@ -4205,14 +4205,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A22:A37"/>
-    <mergeCell ref="B100:I100"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B82:I82"/>
     <mergeCell ref="B111:I111"/>
     <mergeCell ref="A45:A113"/>
     <mergeCell ref="B99:I99"/>
@@ -4223,6 +4215,14 @@
     <mergeCell ref="B66:I66"/>
     <mergeCell ref="B67:I67"/>
     <mergeCell ref="B78:I78"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="B100:I100"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B82:I82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/permit/doc/角色字段-20160520.xlsx
+++ b/permit/doc/角色字段-20160520.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="15495"/>
@@ -73,588 +73,588 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>预售房屋栋号及层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205683.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个镇街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商服用地（商业商务用地）；城镇住宅用地（二类居住用地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张槎街道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞得时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年10月12日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业服务业设施用地、兼容办公、文化娱乐用地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年1月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增施工许可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅城区玉带路16号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年1月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证时各栋已建层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多行文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多行文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将“开发商”改为“建设单位”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将“许可内容”改为规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不计容建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增规划许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取新增规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业办公建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下车库建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下车库建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增预售证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公安门牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增现售备案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请现售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请现售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下车库建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计容建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受让人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地出让合同号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛禅（挂）2010—010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山铂晟置业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440823-2007-000015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2007）第0600004号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设单位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地规划用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>绿地未来商业中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预售房屋栋号及层数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>205683.81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可选文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个镇街</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商服用地（商业商务用地）；城镇住宅用地（二类居住用地）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张槎街道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞得时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年月日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014年10月12日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>佛山铂晟置业有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业服务业设施用地、兼容办公、文化娱乐用地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015年1月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增施工许可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禅城区玉带路16号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015年1月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证时各栋已建层数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多行文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多行文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国土</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将“开发商”改为“建设单位”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将“许可内容”改为规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不计容建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增规划许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓取新增规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业办公建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下车库建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下车库建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增预售证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公安门牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备案证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增现售备案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请现售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请现售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下车库建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计容建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受让人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地出让合同号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛禅（挂）2010—010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山铂晟置业有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>440823-2007-000015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2007）第0600004号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设单位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地规划用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1553,6 +1553,45 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1577,15 +1616,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1599,36 +1629,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2052,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2085,21 +2085,21 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47" t="s">
-        <v>83</v>
+      <c r="A2" s="60" t="s">
+        <v>81</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>0</v>
@@ -2121,13 +2121,13 @@
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -2142,17 +2142,17 @@
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="I3" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="48"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="33" t="s">
         <v>5</v>
       </c>
@@ -2160,24 +2160,24 @@
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="48"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -2186,19 +2186,19 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="42" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="48"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -2207,38 +2207,38 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="48"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="48"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -2247,19 +2247,19 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="48"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>6</v>
@@ -2268,19 +2268,19 @@
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="27" t="s">
-        <v>24</v>
-      </c>
       <c r="I9" s="43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="48"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
@@ -2289,103 +2289,103 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="I10" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="48"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="48"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="48"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="27" t="s">
-        <v>95</v>
-      </c>
       <c r="I13" s="43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="48"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="I14" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="48"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>6</v>
@@ -2394,17 +2394,17 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="48"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>6</v>
@@ -2413,19 +2413,19 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="I16" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="48"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>6</v>
@@ -2434,55 +2434,55 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="42" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="48"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="49"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -2508,8 +2508,8 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="52" t="s">
-        <v>100</v>
+      <c r="A22" s="65" t="s">
+        <v>98</v>
       </c>
       <c r="B22" s="35" t="s">
         <v>8</v>
@@ -2519,118 +2519,118 @@
         <v>9</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="44" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="53"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="53"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I24" s="43" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="53"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H25" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="66"/>
+      <c r="B26" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="I25" s="43"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="53"/>
-      <c r="B26" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="53"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="53"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
@@ -2639,220 +2639,220 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="53"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I29" s="43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="53"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I30" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="53"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="53"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I32" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="53"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="53"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I34" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="53"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I35" s="43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="53"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I36" s="43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="54"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I37" s="43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2878,74 +2878,74 @@
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
+      <c r="A40" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="51"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="51"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I42" s="45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="25"/>
       <c r="B43" s="34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" s="27" t="s">
         <v>142</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>144</v>
       </c>
       <c r="I43" s="27"/>
     </row>
@@ -2961,410 +2961,410 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="63" t="s">
-        <v>112</v>
+      <c r="A45" s="50" t="s">
+        <v>110</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="64"/>
+      <c r="A46" s="51"/>
       <c r="B46" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="65"/>
-      <c r="B47" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="62"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="72"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="65"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="65"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="65"/>
-      <c r="B50" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="57"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="49"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="65"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="65"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="65"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="65"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="65"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="65"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I56" s="18"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="65"/>
+      <c r="A57" s="52"/>
       <c r="B57" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I57" s="18"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="65"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I58" s="18"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="65"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I59" s="18"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="65"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I60" s="18"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="65"/>
-      <c r="B61" s="55" t="s">
+      <c r="A61" s="52"/>
+      <c r="B61" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="49"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" s="52"/>
+      <c r="B62" s="40" t="s">
         <v>120</v>
-      </c>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="57"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="65"/>
-      <c r="B62" s="40" t="s">
-        <v>122</v>
       </c>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
       <c r="F62" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I62" s="29"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="65"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
       <c r="F63" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I63" s="29"/>
     </row>
     <row r="64" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="65"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="65"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="65"/>
-      <c r="B66" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="69"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="56"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="65"/>
-      <c r="B67" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="57"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="49"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="65"/>
+      <c r="A68" s="52"/>
       <c r="B68" s="40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -3376,234 +3376,234 @@
         <v>11</v>
       </c>
       <c r="H68" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I68" s="30"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="65"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
       <c r="F69" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H69" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="65"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
       <c r="F70" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H70" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I70" s="30"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="65"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
       <c r="F71" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I71" s="30"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="65"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
       <c r="F72" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H72" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="65"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
       <c r="F73" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G73" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H73" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="65"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G74" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H74" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I74" s="30"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="65"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
       <c r="F75" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H75" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I75" s="30"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="65"/>
+      <c r="A76" s="52"/>
       <c r="B76" s="40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
       <c r="F76" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G76" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H76" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I76" s="30"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="65"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
       <c r="F77" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I77" s="30"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="65"/>
-      <c r="B78" s="55" t="s">
+      <c r="A78" s="52"/>
+      <c r="B78" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="49"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A79" s="52"/>
+      <c r="B79" s="40" t="s">
         <v>120</v>
-      </c>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="57"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="65"/>
-      <c r="B79" s="40" t="s">
-        <v>122</v>
       </c>
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
       <c r="F79" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G79" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H79" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I79" s="29"/>
     </row>
     <row r="80" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="65"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C80" s="31"/>
       <c r="D80" s="31"/>
       <c r="E80" s="31"/>
       <c r="F80" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H80" s="31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I80" s="32"/>
     </row>
     <row r="81" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="65"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="22"/>
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
@@ -3614,22 +3614,22 @@
       <c r="I81" s="24"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="65"/>
-      <c r="B82" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="C82" s="61"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="61"/>
-      <c r="I82" s="62"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C82" s="71"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="72"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="65"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="39" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -3638,15 +3638,15 @@
         <v>6</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="18"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="65"/>
+      <c r="A84" s="52"/>
       <c r="B84" s="39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3655,529 +3655,529 @@
         <v>6</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="18"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="65"/>
-      <c r="B85" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C85" s="71"/>
-      <c r="D85" s="71"/>
-      <c r="E85" s="71"/>
-      <c r="F85" s="71"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="71"/>
-      <c r="I85" s="72"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="58"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="58"/>
+      <c r="I85" s="59"/>
     </row>
     <row r="86" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A86" s="65"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G86" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H86" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="I86" s="18"/>
     </row>
     <row r="87" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A87" s="65"/>
+      <c r="A87" s="52"/>
       <c r="B87" s="39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I87" s="18"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="65"/>
+      <c r="A88" s="52"/>
       <c r="B88" s="39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I88" s="18"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="65"/>
+      <c r="A89" s="52"/>
       <c r="B89" s="39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I89" s="18"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="65"/>
+      <c r="A90" s="52"/>
       <c r="B90" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I90" s="18"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="65"/>
+      <c r="A91" s="52"/>
       <c r="B91" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I91" s="18"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="65"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I92" s="18"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="65"/>
+      <c r="A93" s="52"/>
       <c r="B93" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I93" s="18"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="65"/>
+      <c r="A94" s="52"/>
       <c r="B94" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I94" s="18"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="65"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I95" s="18"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="65"/>
-      <c r="B96" s="55" t="s">
+      <c r="A96" s="52"/>
+      <c r="B96" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" s="48"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="49"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A97" s="52"/>
+      <c r="B97" s="40" t="s">
         <v>120</v>
-      </c>
-      <c r="C96" s="56"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="56"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="57"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="65"/>
-      <c r="B97" s="40" t="s">
-        <v>122</v>
       </c>
       <c r="C97" s="26"/>
       <c r="D97" s="26"/>
       <c r="E97" s="26"/>
       <c r="F97" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G97" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H97" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I97" s="29"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="65"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C98" s="26"/>
       <c r="D98" s="26"/>
       <c r="E98" s="26"/>
       <c r="F98" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G98" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H98" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I98" s="29"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="65"/>
-      <c r="B99" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="69"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="56"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="65"/>
-      <c r="B100" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C100" s="56"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="56"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="57"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" s="48"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="49"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="65"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C101" s="27"/>
       <c r="D101" s="27"/>
       <c r="E101" s="27"/>
       <c r="F101" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G101" s="27" t="s">
         <v>11</v>
       </c>
       <c r="H101" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I101" s="30"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102" s="65"/>
+      <c r="A102" s="52"/>
       <c r="B102" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C102" s="27"/>
       <c r="D102" s="27"/>
       <c r="E102" s="27"/>
       <c r="F102" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G102" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H102" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I102" s="30"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103" s="65"/>
+      <c r="A103" s="52"/>
       <c r="B103" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C103" s="27"/>
       <c r="D103" s="27"/>
       <c r="E103" s="27"/>
       <c r="F103" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G103" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H103" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I103" s="30"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="65"/>
+      <c r="A104" s="52"/>
       <c r="B104" s="40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C104" s="27"/>
       <c r="D104" s="27"/>
       <c r="E104" s="27"/>
       <c r="F104" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G104" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H104" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I104" s="30"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105" s="65"/>
+      <c r="A105" s="52"/>
       <c r="B105" s="40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C105" s="27"/>
       <c r="D105" s="27"/>
       <c r="E105" s="27"/>
       <c r="F105" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G105" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H105" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I105" s="30"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106" s="65"/>
+      <c r="A106" s="52"/>
       <c r="B106" s="40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C106" s="27"/>
       <c r="D106" s="27"/>
       <c r="E106" s="27"/>
       <c r="F106" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G106" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H106" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I106" s="30"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="65"/>
+      <c r="A107" s="52"/>
       <c r="B107" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C107" s="27"/>
       <c r="D107" s="27"/>
       <c r="E107" s="27"/>
       <c r="F107" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G107" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H107" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I107" s="30"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="65"/>
+      <c r="A108" s="52"/>
       <c r="B108" s="40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C108" s="27"/>
       <c r="D108" s="27"/>
       <c r="E108" s="27"/>
       <c r="F108" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H108" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I108" s="30"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="65"/>
+      <c r="A109" s="52"/>
       <c r="B109" s="40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C109" s="27"/>
       <c r="D109" s="27"/>
       <c r="E109" s="27"/>
       <c r="F109" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G109" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H109" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I109" s="30"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A110" s="65"/>
+      <c r="A110" s="52"/>
       <c r="B110" s="40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C110" s="27"/>
       <c r="D110" s="27"/>
       <c r="E110" s="27"/>
       <c r="F110" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G110" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H110" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I110" s="30"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A111" s="65"/>
-      <c r="B111" s="55" t="s">
+      <c r="A111" s="52"/>
+      <c r="B111" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" s="48"/>
+      <c r="D111" s="48"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="48"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="49"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A112" s="52"/>
+      <c r="B112" s="40" t="s">
         <v>120</v>
-      </c>
-      <c r="C111" s="56"/>
-      <c r="D111" s="56"/>
-      <c r="E111" s="56"/>
-      <c r="F111" s="56"/>
-      <c r="G111" s="56"/>
-      <c r="H111" s="56"/>
-      <c r="I111" s="57"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A112" s="65"/>
-      <c r="B112" s="40" t="s">
-        <v>122</v>
       </c>
       <c r="C112" s="26"/>
       <c r="D112" s="26"/>
       <c r="E112" s="26"/>
       <c r="F112" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G112" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H112" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I112" s="29"/>
     </row>
     <row r="113" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="66"/>
+      <c r="A113" s="53"/>
       <c r="B113" s="41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C113" s="31"/>
       <c r="D113" s="31"/>
       <c r="E113" s="31"/>
       <c r="F113" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G113" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H113" s="31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I113" s="32"/>
     </row>
@@ -4205,6 +4205,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="B100:I100"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B82:I82"/>
     <mergeCell ref="B111:I111"/>
     <mergeCell ref="A45:A113"/>
     <mergeCell ref="B99:I99"/>
@@ -4215,14 +4223,6 @@
     <mergeCell ref="B66:I66"/>
     <mergeCell ref="B67:I67"/>
     <mergeCell ref="B78:I78"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A22:A37"/>
-    <mergeCell ref="B100:I100"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B82:I82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/permit/doc/角色字段-20160520.xlsx
+++ b/permit/doc/角色字段-20160520.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="15495"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="153">
   <si>
     <t>土地挂牌编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,14 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预售房屋栋号及层数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,22 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发证时各栋已建层数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29至31座/9层、32座/10层、33座/11层、37至40座/11层、41座/12层、42座/13层、47至48座/16层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多行文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多行文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预售证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,11 +302,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>填写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>间</t>
+    <t>国土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将“开发商”改为“建设单位”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将“许可内容”改为规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不计容建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增规划许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取新增规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业办公建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下车库建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下车库建筑面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -342,11 +482,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国土</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总面积</t>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增预售证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公安门牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增现售备案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请现售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请现售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -354,42 +550,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>平方米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,202 +562,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将“开发商”改为“建设单位”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将“许可内容”改为规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不计容建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增规划许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓取新增规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业办公建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地下车库建筑面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地下车库建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增预售证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公安门牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备案证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增现售备案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请现售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请现售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下车库建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计容建筑面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,59 +574,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>土地证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛禅（挂）2010—010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山铂晟置业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440823-2007-000015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2007）第0600004号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设单位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地规划用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿地未来商业中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山铂晟置业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>土地出让合同号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>土地证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛禅（挂）2010—010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山铂晟置业有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>440823-2007-000015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2007）第0600004号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设单位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地规划用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿地未来商业中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山铂晟置业有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1411,7 +1383,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1550,8 +1522,29 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1562,6 +1555,21 @@
     <xf numFmtId="49" fontId="3" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1590,45 +1598,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2052,8 +2021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2085,21 +2054,21 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="60" t="s">
-        <v>81</v>
+      <c r="A2" s="46" t="s">
+        <v>74</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>0</v>
@@ -2121,13 +2090,13 @@
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="42" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="61"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -2142,17 +2111,17 @@
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="42" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="61"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="33" t="s">
         <v>5</v>
       </c>
@@ -2160,24 +2129,24 @@
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="61"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -2186,19 +2155,19 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="61"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -2207,38 +2176,38 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="61"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="34" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="47"/>
+      <c r="B8" s="33" t="s">
         <v>23</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="61"/>
-      <c r="B8" s="33" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -2247,19 +2216,19 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="61"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="34" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>6</v>
@@ -2268,19 +2237,19 @@
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="61"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
@@ -2289,103 +2258,103 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I10" s="42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="61"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="34" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="61"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="34" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="61"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="34" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="61"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="33" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="61"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="33" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>6</v>
@@ -2394,17 +2363,17 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="42" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="61"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>6</v>
@@ -2413,19 +2382,19 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I16" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="61"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>6</v>
@@ -2434,55 +2403,55 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="61"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="34" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="43" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="62"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="34" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="43" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -2508,8 +2477,8 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="65" t="s">
-        <v>98</v>
+      <c r="A22" s="51" t="s">
+        <v>91</v>
       </c>
       <c r="B22" s="35" t="s">
         <v>8</v>
@@ -2519,118 +2488,118 @@
         <v>9</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="44" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="66"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="35" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="66"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="34" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I24" s="43" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="66"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="34" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="27" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I25" s="43"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="66"/>
-      <c r="B26" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="66"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="66"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
@@ -2639,220 +2608,220 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="66"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="34" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="27" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H29" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="52"/>
+      <c r="B30" s="35" t="s">
         <v>23</v>
-      </c>
-      <c r="I29" s="43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="66"/>
-      <c r="B30" s="35" t="s">
-        <v>25</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I30" s="44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="66"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I31" s="44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="66"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I32" s="44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="66"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I33" s="44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="66"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="34" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="27" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I34" s="43" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="66"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="34" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="27" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I35" s="43" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="66"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="34" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="27" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I36" s="43" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="67"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="34" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="27" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I37" s="43" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2878,74 +2847,74 @@
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
+      <c r="A40" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="64"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="36" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="64"/>
+      <c r="A42" s="50"/>
       <c r="B42" s="36" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I42" s="45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="25"/>
       <c r="B43" s="34" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I43" s="27"/>
     </row>
@@ -2961,1268 +2930,1236 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="50" t="s">
-        <v>110</v>
+      <c r="A45" s="62" t="s">
+        <v>103</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="51"/>
+      <c r="A46" s="63"/>
       <c r="B46" s="38" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="52"/>
-      <c r="B47" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="72"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="61"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="52"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="39" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="52"/>
+      <c r="A49" s="64"/>
       <c r="B49" s="39" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="52"/>
-      <c r="B50" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="49"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="56"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="52"/>
+      <c r="A51" s="64"/>
       <c r="B51" s="39" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="52"/>
+      <c r="A52" s="64"/>
       <c r="B52" s="39" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="52"/>
+      <c r="A53" s="64"/>
       <c r="B53" s="39" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="52"/>
+      <c r="A54" s="64"/>
       <c r="B54" s="39" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="52"/>
+      <c r="A55" s="64"/>
       <c r="B55" s="39" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="52"/>
+      <c r="A56" s="64"/>
       <c r="B56" s="39" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I56" s="18"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="52"/>
+      <c r="A57" s="64"/>
       <c r="B57" s="39" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="I57" s="18"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="52"/>
+      <c r="A58" s="64"/>
       <c r="B58" s="39" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I58" s="18"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="52"/>
+      <c r="A59" s="64"/>
       <c r="B59" s="39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="I59" s="18"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="52"/>
+      <c r="A60" s="64"/>
       <c r="B60" s="39" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I60" s="18"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="52"/>
-      <c r="B61" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="49"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="56"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="52"/>
+      <c r="A62" s="64"/>
       <c r="B62" s="40" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
       <c r="F62" s="26" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G62" s="26" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I62" s="29"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="52"/>
+      <c r="A63" s="64"/>
       <c r="B63" s="40" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
       <c r="F63" s="26" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H63" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I63" s="29"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="64"/>
+      <c r="B64" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="I63" s="29"/>
-    </row>
-    <row r="64" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="52"/>
-      <c r="B64" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G64" s="4" t="s">
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="68"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="64"/>
+      <c r="B65" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="56"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="64"/>
+      <c r="B66" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="30"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="64"/>
+      <c r="B67" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I67" s="30"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="64"/>
+      <c r="B68" s="40" t="s">
         <v>61</v>
-      </c>
-      <c r="H64" s="4"/>
-      <c r="I64" s="46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="52"/>
-      <c r="B65" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H65" s="4"/>
-      <c r="I65" s="46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="52"/>
-      <c r="B66" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="56"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="52"/>
-      <c r="B67" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="49"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="52"/>
-      <c r="B68" s="40" t="s">
-        <v>133</v>
       </c>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
       <c r="F68" s="27" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="G68" s="27" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H68" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I68" s="30"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="52"/>
+      <c r="A69" s="64"/>
       <c r="B69" s="40" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
       <c r="F69" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H69" s="27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="52"/>
+      <c r="A70" s="64"/>
       <c r="B70" s="40" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
       <c r="F70" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G70" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H70" s="27" t="s">
-        <v>23</v>
-      </c>
       <c r="I70" s="30"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="52"/>
+      <c r="A71" s="64"/>
       <c r="B71" s="40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
       <c r="F71" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I71" s="30"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="52"/>
+      <c r="A72" s="64"/>
       <c r="B72" s="40" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
       <c r="F72" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G72" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H72" s="27" t="s">
-        <v>23</v>
-      </c>
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="52"/>
+      <c r="A73" s="64"/>
       <c r="B73" s="40" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
       <c r="F73" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G73" s="27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H73" s="27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="52"/>
+      <c r="A74" s="64"/>
       <c r="B74" s="40" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G74" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H74" s="27" t="s">
-        <v>23</v>
-      </c>
       <c r="I74" s="30"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="52"/>
+      <c r="A75" s="64"/>
       <c r="B75" s="40" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
       <c r="F75" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H75" s="27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I75" s="30"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="52"/>
-      <c r="B76" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G76" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H76" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I76" s="30"/>
+      <c r="A76" s="64"/>
+      <c r="B76" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="56"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="52"/>
+      <c r="A77" s="64"/>
       <c r="B77" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G77" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="I77" s="30"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="52"/>
-      <c r="B78" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="48"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="49"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="52"/>
-      <c r="B79" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="G79" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H77" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I77" s="29"/>
+    </row>
+    <row r="78" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="64"/>
+      <c r="B78" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H78" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="I79" s="29"/>
-    </row>
-    <row r="80" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="52"/>
-      <c r="B80" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="G80" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I80" s="32"/>
-    </row>
-    <row r="81" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="52"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="24"/>
+      <c r="I78" s="32"/>
+    </row>
+    <row r="79" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="64"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="24"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80" s="64"/>
+      <c r="B80" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" s="60"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="60"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="61"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" s="64"/>
+      <c r="B81" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="4"/>
+      <c r="I81" s="18"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="52"/>
-      <c r="B82" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="C82" s="71"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="72"/>
+      <c r="A82" s="64"/>
+      <c r="B82" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="I82" s="18"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="52"/>
-      <c r="B83" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" s="4"/>
-      <c r="I83" s="18"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="52"/>
+      <c r="A83" s="64"/>
+      <c r="B83" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" s="70"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="70"/>
+      <c r="G83" s="70"/>
+      <c r="H83" s="70"/>
+      <c r="I83" s="71"/>
+    </row>
+    <row r="84" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A84" s="64"/>
       <c r="B84" s="39" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="18"/>
+    </row>
+    <row r="85" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A85" s="64"/>
+      <c r="B85" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H84" s="4"/>
-      <c r="I84" s="18"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="52"/>
-      <c r="B85" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="C85" s="58"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="58"/>
-      <c r="H85" s="58"/>
-      <c r="I85" s="59"/>
-    </row>
-    <row r="86" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A86" s="52"/>
+      <c r="G85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I85" s="18"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86" s="64"/>
       <c r="B86" s="39" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I86" s="18"/>
     </row>
-    <row r="87" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A87" s="52"/>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87" s="64"/>
       <c r="B87" s="39" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I87" s="18"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="52"/>
+      <c r="A88" s="64"/>
       <c r="B88" s="39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H88" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="I88" s="18"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="52"/>
+      <c r="A89" s="64"/>
       <c r="B89" s="39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I89" s="18"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="52"/>
+      <c r="A90" s="64"/>
       <c r="B90" s="39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G90" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H90" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="I90" s="18"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="52"/>
+      <c r="A91" s="64"/>
       <c r="B91" s="39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I91" s="18"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="52"/>
+      <c r="A92" s="64"/>
       <c r="B92" s="39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H92" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="I92" s="18"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="52"/>
+      <c r="A93" s="64"/>
       <c r="B93" s="39" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I93" s="18"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A94" s="64"/>
+      <c r="B94" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="55"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="56"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A95" s="64"/>
+      <c r="B95" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G95" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H95" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I95" s="29"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A96" s="64"/>
+      <c r="B96" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G96" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H96" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I96" s="29"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A97" s="64"/>
+      <c r="B97" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" s="67"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="68"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A98" s="64"/>
+      <c r="B98" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="55"/>
+      <c r="I98" s="56"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99" s="64"/>
+      <c r="B99" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G99" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H93" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I93" s="18"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="52"/>
-      <c r="B94" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I94" s="18"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="52"/>
-      <c r="B95" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I95" s="18"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="52"/>
-      <c r="B96" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="49"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="52"/>
-      <c r="B97" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="G97" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H97" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I97" s="29"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="52"/>
-      <c r="B98" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="G98" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H98" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="I98" s="29"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="52"/>
-      <c r="B99" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="55"/>
-      <c r="G99" s="55"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="56"/>
+      <c r="I99" s="30"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="52"/>
-      <c r="B100" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="C100" s="48"/>
-      <c r="D100" s="48"/>
-      <c r="E100" s="48"/>
-      <c r="F100" s="48"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="49"/>
+      <c r="A100" s="64"/>
+      <c r="B100" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G100" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I100" s="30"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="52"/>
+      <c r="A101" s="64"/>
       <c r="B101" s="40" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C101" s="27"/>
       <c r="D101" s="27"/>
       <c r="E101" s="27"/>
       <c r="F101" s="27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G101" s="27" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H101" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I101" s="30"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102" s="52"/>
+      <c r="A102" s="64"/>
       <c r="B102" s="40" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C102" s="27"/>
       <c r="D102" s="27"/>
       <c r="E102" s="27"/>
       <c r="F102" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G102" s="27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H102" s="27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I102" s="30"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103" s="52"/>
+      <c r="A103" s="64"/>
       <c r="B103" s="40" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C103" s="27"/>
       <c r="D103" s="27"/>
       <c r="E103" s="27"/>
       <c r="F103" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G103" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H103" s="27" t="s">
-        <v>23</v>
-      </c>
       <c r="I103" s="30"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="52"/>
+      <c r="A104" s="64"/>
       <c r="B104" s="40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C104" s="27"/>
       <c r="D104" s="27"/>
       <c r="E104" s="27"/>
       <c r="F104" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G104" s="27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H104" s="27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I104" s="30"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105" s="52"/>
+      <c r="A105" s="64"/>
       <c r="B105" s="40" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C105" s="27"/>
       <c r="D105" s="27"/>
       <c r="E105" s="27"/>
       <c r="F105" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G105" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H105" s="27" t="s">
-        <v>23</v>
-      </c>
       <c r="I105" s="30"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106" s="52"/>
+      <c r="A106" s="64"/>
       <c r="B106" s="40" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C106" s="27"/>
       <c r="D106" s="27"/>
       <c r="E106" s="27"/>
       <c r="F106" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G106" s="27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H106" s="27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I106" s="30"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="52"/>
+      <c r="A107" s="64"/>
       <c r="B107" s="40" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C107" s="27"/>
       <c r="D107" s="27"/>
       <c r="E107" s="27"/>
       <c r="F107" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G107" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H107" s="27" t="s">
-        <v>23</v>
-      </c>
       <c r="I107" s="30"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="52"/>
+      <c r="A108" s="64"/>
       <c r="B108" s="40" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C108" s="27"/>
       <c r="D108" s="27"/>
       <c r="E108" s="27"/>
       <c r="F108" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H108" s="27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I108" s="30"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="52"/>
-      <c r="B109" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G109" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H109" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I109" s="30"/>
+      <c r="A109" s="64"/>
+      <c r="B109" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="55"/>
+      <c r="D109" s="55"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="55"/>
+      <c r="H109" s="55"/>
+      <c r="I109" s="56"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A110" s="52"/>
+      <c r="A110" s="64"/>
       <c r="B110" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G110" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H110" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="I110" s="30"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A111" s="52"/>
-      <c r="B111" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="C111" s="48"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="48"/>
-      <c r="F111" s="48"/>
-      <c r="G111" s="48"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="49"/>
+        <v>113</v>
+      </c>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G110" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H110" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I110" s="29"/>
+    </row>
+    <row r="111" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="64"/>
+      <c r="B111" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G111" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H111" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="I111" s="32"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A112" s="52"/>
-      <c r="B112" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="G112" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H112" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I112" s="29"/>
-    </row>
-    <row r="113" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="53"/>
-      <c r="B113" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="G113" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H113" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I113" s="32"/>
+      <c r="A112" s="64"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="20"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A113" s="65"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" s="5"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="21"/>
-      <c r="I114" s="20"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" s="5"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B109:I109"/>
+    <mergeCell ref="A45:A113"/>
+    <mergeCell ref="B97:I97"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B83:I83"/>
+    <mergeCell ref="B94:I94"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B76:I76"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A22:A37"/>
-    <mergeCell ref="B100:I100"/>
+    <mergeCell ref="B98:I98"/>
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="B40:I40"/>
     <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B82:I82"/>
-    <mergeCell ref="B111:I111"/>
-    <mergeCell ref="A45:A113"/>
-    <mergeCell ref="B99:I99"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B85:I85"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B78:I78"/>
+    <mergeCell ref="B80:I80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/permit/doc/角色字段-20160520.xlsx
+++ b/permit/doc/角色字段-20160520.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="15495"/>
@@ -246,387 +246,387 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>预售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将“开发商”改为“建设单位”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将“许可内容”改为规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不计容建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增规划许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取新增规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业办公建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下车库建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下车库建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增预售证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公安门牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增现售备案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请现售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下车库建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计容建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受让人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛禅（挂）2010—010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山铂晟置业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440823-2007-000015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2007）第0600004号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设单位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地规划用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿地未来商业中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山铂晟置业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地出让合同号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请现售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>预售证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国土</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将“开发商”改为“建设单位”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将“许可内容”改为规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不计容建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增规划许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓取新增规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业办公建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下车库建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下车库建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增预售证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公安门牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备案证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增现售备案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请现售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请现售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下车库建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计容建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受让人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛禅（挂）2010—010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山铂晟置业有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>440823-2007-000015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2007）第0600004号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设单位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地规划用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿地未来商业中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山铂晟置业有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地出让合同号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1383,7 +1383,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1441,15 +1441,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1522,6 +1513,45 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1546,15 +1576,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1568,36 +1589,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2019,10 +2010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2054,7 +2045,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>10</v>
@@ -2067,10 +2058,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="33" t="s">
+      <c r="A2" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2089,13 +2080,13 @@
         <v>12</v>
       </c>
       <c r="H2" s="6"/>
-      <c r="I2" s="42" t="s">
-        <v>141</v>
+      <c r="I2" s="39" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="30" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2116,13 +2107,13 @@
       <c r="H3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="39" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="47"/>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -2132,20 +2123,20 @@
         <v>43</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="39" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="47"/>
-      <c r="B5" s="33" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2160,13 +2151,13 @@
       <c r="H5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="47"/>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2179,34 +2170,34 @@
         <v>16</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="47"/>
-      <c r="B7" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="27" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="47"/>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="30" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2216,39 +2207,39 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="39" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="47"/>
-      <c r="B9" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="27" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="43" t="s">
-        <v>105</v>
+      <c r="I9" s="40" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="47"/>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2263,98 +2254,98 @@
       <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="39" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="47"/>
-      <c r="B11" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="27" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="57"/>
+      <c r="B12" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="57"/>
+      <c r="B13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="47"/>
-      <c r="B12" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="27" t="s">
+      <c r="I13" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="57"/>
+      <c r="B14" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="47"/>
-      <c r="B13" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="47"/>
-      <c r="B14" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>88</v>
+      <c r="I14" s="39" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="33" t="s">
-        <v>138</v>
+      <c r="A15" s="57"/>
+      <c r="B15" s="30" t="s">
+        <v>135</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>6</v>
@@ -2366,13 +2357,13 @@
         <v>37</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="42" t="s">
-        <v>142</v>
+      <c r="I15" s="39" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="47"/>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -2387,13 +2378,13 @@
       <c r="H16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="39" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="47"/>
-      <c r="B17" s="33" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -2408,50 +2399,50 @@
       <c r="H17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="39" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="47"/>
-      <c r="B18" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="43" t="s">
-        <v>143</v>
+      <c r="A18" s="57"/>
+      <c r="B18" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="40" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="48"/>
-      <c r="B19" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="43" t="s">
-        <v>144</v>
+      <c r="A19" s="58"/>
+      <c r="B19" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="40" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -2477,10 +2468,10 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="35" t="s">
+      <c r="A22" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="13"/>
@@ -2488,99 +2479,99 @@
         <v>9</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="13"/>
-      <c r="I22" s="44" t="s">
-        <v>149</v>
+      <c r="I22" s="41" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="52"/>
-      <c r="B23" s="35" t="s">
-        <v>146</v>
+      <c r="A23" s="62"/>
+      <c r="B23" s="32" t="s">
+        <v>143</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="13"/>
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="41" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="52"/>
-      <c r="B24" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27" t="s">
+      <c r="A24" s="62"/>
+      <c r="B24" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28" t="s">
+      <c r="E24" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="I24" s="43" t="s">
-        <v>150</v>
+      <c r="H24" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="52"/>
-      <c r="B25" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="28" t="s">
+      <c r="A25" s="62"/>
+      <c r="B25" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="62"/>
+      <c r="B26" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="I25" s="43"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="52"/>
-      <c r="B26" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
-      <c r="B27" s="35" t="s">
-        <v>152</v>
+      <c r="A27" s="62"/>
+      <c r="B27" s="32" t="s">
+        <v>149</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13" t="s">
@@ -2597,8 +2588,8 @@
       <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="52"/>
-      <c r="B28" s="35" t="s">
+      <c r="A28" s="62"/>
+      <c r="B28" s="32" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="13"/>
@@ -2613,36 +2604,36 @@
       <c r="H28" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="44" t="s">
+      <c r="I28" s="41" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27" t="s">
+      <c r="A29" s="62"/>
+      <c r="B29" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="43" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="52"/>
-      <c r="B30" s="35" t="s">
+      <c r="A30" s="62"/>
+      <c r="B30" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="13"/>
@@ -2650,22 +2641,22 @@
         <v>6</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="44" t="s">
+      <c r="I30" s="41" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="52"/>
-      <c r="B31" s="35" t="s">
+      <c r="A31" s="62"/>
+      <c r="B31" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="13"/>
@@ -2673,7 +2664,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13" t="s">
@@ -2682,13 +2673,13 @@
       <c r="H31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="44" t="s">
+      <c r="I31" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="52"/>
-      <c r="B32" s="35" t="s">
+      <c r="A32" s="62"/>
+      <c r="B32" s="32" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="13"/>
@@ -2696,7 +2687,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
@@ -2705,13 +2696,13 @@
       <c r="H32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="44" t="s">
+      <c r="I32" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="52"/>
-      <c r="B33" s="35" t="s">
+      <c r="A33" s="62"/>
+      <c r="B33" s="32" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="13"/>
@@ -2719,7 +2710,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13" t="s">
@@ -2728,100 +2719,100 @@
       <c r="H33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="44" t="s">
+      <c r="I33" s="41" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="52"/>
-      <c r="B34" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27" t="s">
+      <c r="A34" s="62"/>
+      <c r="B34" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="62"/>
+      <c r="B35" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="43" t="s">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="62"/>
+      <c r="B36" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="63"/>
+      <c r="B37" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="52"/>
-      <c r="B35" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="52"/>
-      <c r="B36" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="I36" s="43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="53"/>
-      <c r="B37" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="I37" s="43" t="s">
-        <v>88</v>
+      <c r="H37" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="I37" s="40" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2847,24 +2838,24 @@
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="58" t="s">
+      <c r="A40" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="50"/>
-      <c r="B41" s="36" t="s">
-        <v>147</v>
+      <c r="A41" s="60"/>
+      <c r="B41" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -2879,9 +2870,9 @@
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="50"/>
-      <c r="B42" s="36" t="s">
-        <v>148</v>
+      <c r="A42" s="60"/>
+      <c r="B42" s="33" t="s">
+        <v>145</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -2895,28 +2886,28 @@
       <c r="H42" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I42" s="45" t="s">
+      <c r="I42" s="42" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="25"/>
-      <c r="B43" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27" t="s">
+      <c r="A43" s="22"/>
+      <c r="B43" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="I43" s="27"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
@@ -2930,10 +2921,10 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="37" t="s">
+      <c r="A45" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C45" s="4"/>
@@ -2949,9 +2940,9 @@
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="63"/>
-      <c r="B46" s="38" t="s">
-        <v>120</v>
+      <c r="A46" s="47"/>
+      <c r="B46" s="35" t="s">
+        <v>118</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -2966,22 +2957,22 @@
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="64"/>
-      <c r="B47" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="61"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="68"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="64"/>
-      <c r="B48" s="39" t="s">
-        <v>57</v>
+      <c r="A48" s="48"/>
+      <c r="B48" s="36" t="s">
+        <v>151</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2996,9 +2987,9 @@
       <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="64"/>
-      <c r="B49" s="39" t="s">
-        <v>58</v>
+      <c r="A49" s="48"/>
+      <c r="B49" s="36" t="s">
+        <v>152</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -3013,22 +3004,22 @@
       <c r="I49" s="18"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="64"/>
-      <c r="B50" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="56"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="45"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="64"/>
-      <c r="B51" s="39" t="s">
-        <v>59</v>
+      <c r="A51" s="48"/>
+      <c r="B51" s="36" t="s">
+        <v>57</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -3045,9 +3036,9 @@
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="64"/>
-      <c r="B52" s="39" t="s">
-        <v>60</v>
+      <c r="A52" s="48"/>
+      <c r="B52" s="36" t="s">
+        <v>58</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -3059,14 +3050,14 @@
         <v>19</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="64"/>
-      <c r="B53" s="39" t="s">
-        <v>61</v>
+      <c r="A53" s="48"/>
+      <c r="B53" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -3083,9 +3074,9 @@
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="64"/>
-      <c r="B54" s="39" t="s">
-        <v>62</v>
+      <c r="A54" s="48"/>
+      <c r="B54" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -3097,14 +3088,14 @@
         <v>19</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="64"/>
-      <c r="B55" s="39" t="s">
-        <v>63</v>
+      <c r="A55" s="48"/>
+      <c r="B55" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -3121,9 +3112,9 @@
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="64"/>
-      <c r="B56" s="39" t="s">
-        <v>64</v>
+      <c r="A56" s="48"/>
+      <c r="B56" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -3135,14 +3126,14 @@
         <v>19</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I56" s="18"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="64"/>
-      <c r="B57" s="39" t="s">
-        <v>65</v>
+      <c r="A57" s="48"/>
+      <c r="B57" s="36" t="s">
+        <v>63</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -3159,9 +3150,9 @@
       <c r="I57" s="18"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="64"/>
-      <c r="B58" s="39" t="s">
-        <v>66</v>
+      <c r="A58" s="48"/>
+      <c r="B58" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -3173,14 +3164,14 @@
         <v>19</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I58" s="18"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="64"/>
-      <c r="B59" s="39" t="s">
-        <v>67</v>
+      <c r="A59" s="48"/>
+      <c r="B59" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -3197,370 +3188,370 @@
       <c r="I59" s="18"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="64"/>
-      <c r="B60" s="39" t="s">
-        <v>68</v>
+      <c r="A60" s="48"/>
+      <c r="B60" s="36" t="s">
+        <v>66</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I60" s="18"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="64"/>
-      <c r="B61" s="54" t="s">
+      <c r="A61" s="48"/>
+      <c r="B61" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="45"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" s="48"/>
+      <c r="B62" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="56"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="64"/>
-      <c r="B62" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="H62" s="26" t="s">
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I62" s="26"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="48"/>
+      <c r="B63" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I63" s="26"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="48"/>
+      <c r="B64" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="52"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="48"/>
+      <c r="B65" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="45"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="48"/>
+      <c r="B66" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="27"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="48"/>
+      <c r="B67" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I67" s="27"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="48"/>
+      <c r="B68" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="27"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="48"/>
+      <c r="B69" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I69" s="27"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="48"/>
+      <c r="B70" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="27"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" s="48"/>
+      <c r="B71" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I71" s="27"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" s="48"/>
+      <c r="B72" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="27"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="48"/>
+      <c r="B73" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I73" s="27"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" s="48"/>
+      <c r="B74" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" s="27"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" s="48"/>
+      <c r="B75" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I75" s="27"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76" s="48"/>
+      <c r="B76" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="I62" s="29"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="64"/>
-      <c r="B63" s="40" t="s">
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="45"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77" s="48"/>
+      <c r="B77" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I77" s="26"/>
+    </row>
+    <row r="78" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="48"/>
+      <c r="B78" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G78" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H78" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="H63" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I63" s="29"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="64"/>
-      <c r="B64" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="68"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="64"/>
-      <c r="B65" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="56"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="64"/>
-      <c r="B66" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="30"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="64"/>
-      <c r="B67" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G67" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="I67" s="30"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="64"/>
-      <c r="B68" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G68" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68" s="30"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="64"/>
-      <c r="B69" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G69" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="I69" s="30"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="64"/>
-      <c r="B70" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G70" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I70" s="30"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="64"/>
-      <c r="B71" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G71" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="I71" s="30"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="64"/>
-      <c r="B72" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G72" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" s="30"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="64"/>
-      <c r="B73" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G73" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="I73" s="30"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="64"/>
-      <c r="B74" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G74" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="30"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="64"/>
-      <c r="B75" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G75" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="I75" s="30"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="64"/>
-      <c r="B76" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="56"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="64"/>
-      <c r="B77" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G77" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="H77" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="I77" s="29"/>
-    </row>
-    <row r="78" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="64"/>
-      <c r="B78" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G78" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="H78" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="I78" s="32"/>
+      <c r="I78" s="29"/>
     </row>
     <row r="79" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="64"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="24"/>
+      <c r="A79" s="48"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="21"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="64"/>
-      <c r="B80" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C80" s="60"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="60"/>
-      <c r="G80" s="60"/>
-      <c r="H80" s="60"/>
-      <c r="I80" s="61"/>
+      <c r="A80" s="48"/>
+      <c r="B80" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="67"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="68"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="64"/>
-      <c r="B81" s="39" t="s">
-        <v>122</v>
+      <c r="A81" s="48"/>
+      <c r="B81" s="36" t="s">
+        <v>120</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -3575,8 +3566,8 @@
       <c r="I81" s="18"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="64"/>
-      <c r="B82" s="39" t="s">
+      <c r="A82" s="48"/>
+      <c r="B82" s="36" t="s">
         <v>52</v>
       </c>
       <c r="C82" s="4"/>
@@ -3592,22 +3583,22 @@
       <c r="I82" s="18"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="64"/>
-      <c r="B83" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="C83" s="70"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="70"/>
-      <c r="H83" s="70"/>
-      <c r="I83" s="71"/>
+      <c r="A83" s="48"/>
+      <c r="B83" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="55"/>
     </row>
     <row r="84" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A84" s="64"/>
-      <c r="B84" s="39" t="s">
-        <v>128</v>
+      <c r="A84" s="48"/>
+      <c r="B84" s="36" t="s">
+        <v>126</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -3624,9 +3615,9 @@
       <c r="I84" s="18"/>
     </row>
     <row r="85" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A85" s="64"/>
-      <c r="B85" s="39" t="s">
-        <v>129</v>
+      <c r="A85" s="48"/>
+      <c r="B85" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -3638,14 +3629,14 @@
         <v>19</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I85" s="18"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="64"/>
-      <c r="B86" s="39" t="s">
-        <v>61</v>
+      <c r="A86" s="48"/>
+      <c r="B86" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -3662,9 +3653,9 @@
       <c r="I86" s="18"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="64"/>
-      <c r="B87" s="39" t="s">
-        <v>62</v>
+      <c r="A87" s="48"/>
+      <c r="B87" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -3676,14 +3667,14 @@
         <v>19</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I87" s="18"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="64"/>
-      <c r="B88" s="39" t="s">
-        <v>63</v>
+      <c r="A88" s="48"/>
+      <c r="B88" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -3700,9 +3691,9 @@
       <c r="I88" s="18"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="64"/>
-      <c r="B89" s="39" t="s">
-        <v>64</v>
+      <c r="A89" s="48"/>
+      <c r="B89" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -3714,14 +3705,14 @@
         <v>19</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I89" s="18"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="64"/>
-      <c r="B90" s="39" t="s">
-        <v>65</v>
+      <c r="A90" s="48"/>
+      <c r="B90" s="36" t="s">
+        <v>63</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -3738,9 +3729,9 @@
       <c r="I90" s="18"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="64"/>
-      <c r="B91" s="39" t="s">
-        <v>66</v>
+      <c r="A91" s="48"/>
+      <c r="B91" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -3752,14 +3743,14 @@
         <v>19</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I91" s="18"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="64"/>
-      <c r="B92" s="39" t="s">
-        <v>67</v>
+      <c r="A92" s="48"/>
+      <c r="B92" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -3776,9 +3767,9 @@
       <c r="I92" s="18"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="64"/>
-      <c r="B93" s="39" t="s">
-        <v>68</v>
+      <c r="A93" s="48"/>
+      <c r="B93" s="36" t="s">
+        <v>66</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -3790,358 +3781,344 @@
         <v>19</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I93" s="18"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="64"/>
-      <c r="B94" s="54" t="s">
+      <c r="A94" s="48"/>
+      <c r="B94" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="45"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A95" s="48"/>
+      <c r="B95" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C94" s="55"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="55"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="56"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="64"/>
-      <c r="B95" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G95" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="H95" s="26" t="s">
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I95" s="26"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A96" s="48"/>
+      <c r="B96" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G96" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I96" s="26"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A97" s="48"/>
+      <c r="B97" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="51"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="52"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A98" s="48"/>
+      <c r="B98" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="44"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="45"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99" s="48"/>
+      <c r="B99" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" s="27"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A100" s="48"/>
+      <c r="B100" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G100" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I100" s="27"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A101" s="48"/>
+      <c r="B101" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G101" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I101" s="27"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A102" s="48"/>
+      <c r="B102" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G102" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I102" s="27"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A103" s="48"/>
+      <c r="B103" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G103" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" s="27"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A104" s="48"/>
+      <c r="B104" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G104" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I104" s="27"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A105" s="48"/>
+      <c r="B105" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G105" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I105" s="27"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A106" s="48"/>
+      <c r="B106" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G106" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I106" s="27"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A107" s="48"/>
+      <c r="B107" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G107" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I107" s="27"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A108" s="48"/>
+      <c r="B108" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G108" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I108" s="27"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A109" s="48"/>
+      <c r="B109" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="I95" s="29"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="64"/>
-      <c r="B96" s="40" t="s">
+      <c r="C109" s="44"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="44"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="44"/>
+      <c r="I109" s="45"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A110" s="48"/>
+      <c r="B110" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I110" s="26"/>
+    </row>
+    <row r="111" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="48"/>
+      <c r="B111" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G111" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H111" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G96" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="H96" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I96" s="29"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="64"/>
-      <c r="B97" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="67"/>
-      <c r="D97" s="67"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="67"/>
-      <c r="H97" s="67"/>
-      <c r="I97" s="68"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="64"/>
-      <c r="B98" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="55"/>
-      <c r="G98" s="55"/>
-      <c r="H98" s="55"/>
-      <c r="I98" s="56"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="64"/>
-      <c r="B99" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G99" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H99" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I99" s="30"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="64"/>
-      <c r="B100" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G100" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H100" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="I100" s="30"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="64"/>
-      <c r="B101" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G101" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H101" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I101" s="30"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102" s="64"/>
-      <c r="B102" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G102" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="I102" s="30"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103" s="64"/>
-      <c r="B103" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G103" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H103" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I103" s="30"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="64"/>
-      <c r="B104" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G104" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H104" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="I104" s="30"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105" s="64"/>
-      <c r="B105" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G105" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H105" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I105" s="30"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106" s="64"/>
-      <c r="B106" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G106" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H106" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="I106" s="30"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="64"/>
-      <c r="B107" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G107" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H107" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I107" s="30"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="64"/>
-      <c r="B108" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G108" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H108" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="I108" s="30"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="64"/>
-      <c r="B109" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="C109" s="55"/>
-      <c r="D109" s="55"/>
-      <c r="E109" s="55"/>
-      <c r="F109" s="55"/>
-      <c r="G109" s="55"/>
-      <c r="H109" s="55"/>
-      <c r="I109" s="56"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A110" s="64"/>
-      <c r="B110" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G110" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="H110" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="I110" s="29"/>
-    </row>
-    <row r="111" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="64"/>
-      <c r="B111" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="C111" s="31"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="31"/>
-      <c r="F111" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="G111" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="H111" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="I111" s="32"/>
+      <c r="I111" s="29"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A112" s="64"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="21"/>
-      <c r="H112" s="21"/>
-      <c r="I112" s="20"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A113" s="65"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A114" s="5"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A115" s="5"/>
+      <c r="A112" s="48"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="B98:I98"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B80:I80"/>
     <mergeCell ref="B109:I109"/>
     <mergeCell ref="A45:A113"/>
     <mergeCell ref="B97:I97"/>
@@ -4152,14 +4129,6 @@
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="B65:I65"/>
     <mergeCell ref="B76:I76"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A22:A37"/>
-    <mergeCell ref="B98:I98"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B80:I80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/permit/doc/角色字段-20160520.xlsx
+++ b/permit/doc/角色字段-20160520.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="15495"/>
@@ -21,612 +21,612 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="153">
   <si>
+    <t>字段\角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地座落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205683.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个镇街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商服用地（商业商务用地）；城镇住宅用地（二类居住用地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张槎街道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞得时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年10月12日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业服务业设施用地、兼容办公、文化娱乐用地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年1月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增施工许可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅城区玉带路16号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年1月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用房面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它用房单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将“开发商”改为“建设单位”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将“许可内容”改为规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不计容建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增规划许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取新增规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业办公建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下车库建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下车库建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计容面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增预售证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公安门牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备案证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增现售备案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请现售房屋总建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下车库建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计容建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受让人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛禅（挂）2010—010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山铂晟置业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440823-2007-000015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2007）第0600004号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设单位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地规划用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿地未来商业中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山铂晟置业有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地出让合同号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划许可证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请现售房屋总单元数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>土地挂牌编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段\角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国土</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地座落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>205683.81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可选文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4个镇街</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商服用地（商业商务用地）；城镇住宅用地（二类居住用地）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张槎街道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞得时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年月日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014年10月12日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业服务业设施用地、兼容办公、文化娱乐用地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015年1月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增施工许可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禅城区玉带路16号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015年1月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住宅用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用房面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它用房单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国土</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将“开发商”改为“建设单位”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将“许可内容”改为规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不计容建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增规划许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓取新增规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业办公建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下车库建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下车库建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计容面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增预售证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公安门牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备案证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增现售备案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请现售房屋总建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平方米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下车库建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计容建筑面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受让人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛禅（挂）2010—010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山铂晟置业有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>440823-2007-000015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（2007）第0600004号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设单位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地规划用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工许可证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿地未来商业中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛山铂晟置业有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地出让合同号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划许可证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请现售房屋总单元数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预售证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1513,6 +1513,30 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1522,6 +1546,21 @@
     <xf numFmtId="49" fontId="3" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1550,45 +1589,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2010,10 +2010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2033,416 +2033,416 @@
     <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
-        <v>72</v>
+      <c r="A2" s="43" t="s">
+        <v>71</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="I3" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="57"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="39" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="57"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="57"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="57"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="57"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="24" t="s">
-        <v>21</v>
-      </c>
       <c r="I9" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="I10" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="57"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="57"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="57"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="39" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="57"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="I16" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="39" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="57"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -2457,366 +2457,366 @@
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="61" t="s">
-        <v>89</v>
-      </c>
+      <c r="A21" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="49"/>
       <c r="B22" s="32" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="49"/>
+      <c r="B23" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="40" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="62"/>
-      <c r="B23" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="41" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="62"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="31" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="24"/>
+        <v>93</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24" t="s">
+        <v>115</v>
+      </c>
       <c r="G24" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="62"/>
-      <c r="B25" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="40"/>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="49"/>
+      <c r="B25" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="62"/>
-      <c r="B26" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="62"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="32" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="G27" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="41" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="62"/>
-      <c r="B28" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="41" t="s">
-        <v>46</v>
+      <c r="A28" s="49"/>
+      <c r="B28" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="62"/>
-      <c r="B29" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="24" t="s">
+      <c r="A29" s="49"/>
+      <c r="B29" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="40" t="s">
-        <v>77</v>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="41" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="62"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I30" s="41" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="62"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="62"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="32" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I32" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="62"/>
-      <c r="B33" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="41" t="s">
-        <v>29</v>
+      <c r="A33" s="49"/>
+      <c r="B33" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="62"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="31" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="62"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="31" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I35" s="40" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="62"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="31" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C36" s="24"/>
       <c r="D36" s="24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F36" s="24"/>
       <c r="G36" s="24" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="I36" s="40" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="63"/>
-      <c r="B37" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="I37" s="40" t="s">
-        <v>86</v>
-      </c>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -2827,150 +2827,156 @@
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+      <c r="A39" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="60"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="33" t="s">
         <v>144</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="42" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="60"/>
-      <c r="B42" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I42" s="42" t="s">
+      <c r="A42" s="22"/>
+      <c r="B42" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="5"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="22"/>
-      <c r="B43" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="I43" s="24"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="47"/>
-      <c r="B46" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="60"/>
+      <c r="B45" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="61"/>
+      <c r="B46" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="58"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="48"/>
-      <c r="B47" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="68"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="18"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="48"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="36" t="s">
         <v>151</v>
       </c>
@@ -2978,46 +2984,48 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="48"/>
-      <c r="B49" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="18"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="53"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="48"/>
-      <c r="B50" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="45"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="18"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="48"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="36" t="s">
         <v>57</v>
       </c>
@@ -3025,18 +3033,18 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="48"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="36" t="s">
         <v>58</v>
       </c>
@@ -3044,18 +3052,18 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="48"/>
+      <c r="A53" s="61"/>
       <c r="B53" s="36" t="s">
         <v>59</v>
       </c>
@@ -3063,18 +3071,18 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="48"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="36" t="s">
         <v>60</v>
       </c>
@@ -3082,18 +3090,18 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="48"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="36" t="s">
         <v>61</v>
       </c>
@@ -3101,18 +3109,18 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="48"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="36" t="s">
         <v>62</v>
       </c>
@@ -3120,18 +3128,18 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I56" s="18"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="48"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="36" t="s">
         <v>63</v>
       </c>
@@ -3139,18 +3147,18 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I57" s="18"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="48"/>
+      <c r="A58" s="61"/>
       <c r="B58" s="36" t="s">
         <v>64</v>
       </c>
@@ -3158,18 +3166,18 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I58" s="18"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="48"/>
+      <c r="A59" s="61"/>
       <c r="B59" s="36" t="s">
         <v>65</v>
       </c>
@@ -3177,50 +3185,50 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I59" s="18"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="48"/>
-      <c r="B60" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I60" s="18"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="53"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="48"/>
-      <c r="B61" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="45"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I61" s="26"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="48"/>
+      <c r="A62" s="61"/>
       <c r="B62" s="37" t="s">
         <v>111</v>
       </c>
@@ -3228,63 +3236,63 @@
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
       <c r="F62" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I62" s="26"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="48"/>
-      <c r="B63" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="H63" s="23" t="s">
+      <c r="A63" s="61"/>
+      <c r="B63" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="65"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="61"/>
+      <c r="B64" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="I63" s="26"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="48"/>
-      <c r="B64" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="53"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="48"/>
-      <c r="B65" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="45"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="27"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="48"/>
+      <c r="A66" s="61"/>
       <c r="B66" s="37" t="s">
         <v>124</v>
       </c>
@@ -3292,37 +3300,37 @@
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
       <c r="F66" s="24" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I66" s="27"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="48"/>
+      <c r="A67" s="61"/>
       <c r="B67" s="37" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="24"/>
       <c r="E67" s="24"/>
       <c r="F67" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I67" s="27"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="48"/>
+      <c r="A68" s="61"/>
       <c r="B68" s="37" t="s">
         <v>59</v>
       </c>
@@ -3330,18 +3338,18 @@
       <c r="D68" s="24"/>
       <c r="E68" s="24"/>
       <c r="F68" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I68" s="27"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="48"/>
+      <c r="A69" s="61"/>
       <c r="B69" s="37" t="s">
         <v>60</v>
       </c>
@@ -3349,18 +3357,18 @@
       <c r="D69" s="24"/>
       <c r="E69" s="24"/>
       <c r="F69" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I69" s="27"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="48"/>
+      <c r="A70" s="61"/>
       <c r="B70" s="37" t="s">
         <v>61</v>
       </c>
@@ -3368,18 +3376,18 @@
       <c r="D70" s="24"/>
       <c r="E70" s="24"/>
       <c r="F70" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I70" s="27"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="48"/>
+      <c r="A71" s="61"/>
       <c r="B71" s="37" t="s">
         <v>62</v>
       </c>
@@ -3387,18 +3395,18 @@
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
       <c r="F71" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I71" s="27"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="48"/>
+      <c r="A72" s="61"/>
       <c r="B72" s="37" t="s">
         <v>63</v>
       </c>
@@ -3406,18 +3414,18 @@
       <c r="D72" s="24"/>
       <c r="E72" s="24"/>
       <c r="F72" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I72" s="27"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="48"/>
+      <c r="A73" s="61"/>
       <c r="B73" s="37" t="s">
         <v>64</v>
       </c>
@@ -3425,18 +3433,18 @@
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
       <c r="F73" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I73" s="27"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="48"/>
+      <c r="A74" s="61"/>
       <c r="B74" s="37" t="s">
         <v>65</v>
       </c>
@@ -3444,197 +3452,197 @@
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
       <c r="F74" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I74" s="27"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="48"/>
-      <c r="B75" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G75" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="I75" s="27"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="52"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="53"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="48"/>
-      <c r="B76" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="45"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="48"/>
-      <c r="B77" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G77" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="H77" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="I77" s="26"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I76" s="26"/>
+    </row>
+    <row r="77" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="61"/>
+      <c r="B77" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H77" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="I77" s="29"/>
     </row>
     <row r="78" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="48"/>
-      <c r="B78" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G78" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="H78" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="I78" s="29"/>
-    </row>
-    <row r="79" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="48"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="21"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="21"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A79" s="61"/>
+      <c r="B79" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="58"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="48"/>
-      <c r="B80" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="C80" s="67"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="68"/>
+      <c r="A80" s="61"/>
+      <c r="B80" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="4"/>
+      <c r="I80" s="18"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="48"/>
+      <c r="A81" s="61"/>
       <c r="B81" s="36" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="18"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="48"/>
-      <c r="B82" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H82" s="4"/>
-      <c r="I82" s="18"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="48"/>
-      <c r="B83" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="C83" s="54"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="55"/>
+      <c r="A82" s="61"/>
+      <c r="B82" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="67"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="68"/>
+    </row>
+    <row r="83" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A83" s="61"/>
+      <c r="B83" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="18"/>
     </row>
     <row r="84" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A84" s="48"/>
+      <c r="A84" s="61"/>
       <c r="B84" s="36" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I84" s="18"/>
     </row>
-    <row r="85" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A85" s="48"/>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A85" s="61"/>
       <c r="B85" s="36" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I85" s="18"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="48"/>
+      <c r="A86" s="61"/>
       <c r="B86" s="36" t="s">
         <v>59</v>
       </c>
@@ -3642,18 +3650,18 @@
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I86" s="18"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="48"/>
+      <c r="A87" s="61"/>
       <c r="B87" s="36" t="s">
         <v>60</v>
       </c>
@@ -3661,18 +3669,18 @@
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I87" s="18"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="48"/>
+      <c r="A88" s="61"/>
       <c r="B88" s="36" t="s">
         <v>61</v>
       </c>
@@ -3680,18 +3688,18 @@
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I88" s="18"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="48"/>
+      <c r="A89" s="61"/>
       <c r="B89" s="36" t="s">
         <v>62</v>
       </c>
@@ -3699,18 +3707,18 @@
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I89" s="18"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="48"/>
+      <c r="A90" s="61"/>
       <c r="B90" s="36" t="s">
         <v>63</v>
       </c>
@@ -3718,18 +3726,18 @@
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I90" s="18"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="48"/>
+      <c r="A91" s="61"/>
       <c r="B91" s="36" t="s">
         <v>64</v>
       </c>
@@ -3737,18 +3745,18 @@
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I91" s="18"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="48"/>
+      <c r="A92" s="61"/>
       <c r="B92" s="36" t="s">
         <v>65</v>
       </c>
@@ -3756,50 +3764,50 @@
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I92" s="18"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="48"/>
-      <c r="B93" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I93" s="18"/>
+      <c r="A93" s="61"/>
+      <c r="B93" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="52"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="52"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="52"/>
+      <c r="I93" s="53"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="48"/>
-      <c r="B94" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C94" s="44"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="44"/>
-      <c r="H94" s="44"/>
-      <c r="I94" s="45"/>
+      <c r="A94" s="61"/>
+      <c r="B94" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I94" s="26"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="48"/>
+      <c r="A95" s="61"/>
       <c r="B95" s="37" t="s">
         <v>111</v>
       </c>
@@ -3807,63 +3815,63 @@
       <c r="D95" s="23"/>
       <c r="E95" s="23"/>
       <c r="F95" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G95" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H95" s="23" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I95" s="26"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="48"/>
-      <c r="B96" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G96" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="H96" s="23" t="s">
+      <c r="A96" s="61"/>
+      <c r="B96" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="64"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="65"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A97" s="61"/>
+      <c r="B97" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="I96" s="26"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="48"/>
-      <c r="B97" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="C97" s="51"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="51"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="51"/>
-      <c r="I97" s="52"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="52"/>
+      <c r="I97" s="53"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="48"/>
-      <c r="B98" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C98" s="44"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="44"/>
-      <c r="F98" s="44"/>
-      <c r="G98" s="44"/>
-      <c r="H98" s="44"/>
-      <c r="I98" s="45"/>
+      <c r="A98" s="61"/>
+      <c r="B98" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G98" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" s="27"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="48"/>
+      <c r="A99" s="61"/>
       <c r="B99" s="37" t="s">
         <v>67</v>
       </c>
@@ -3871,37 +3879,37 @@
       <c r="D99" s="24"/>
       <c r="E99" s="24"/>
       <c r="F99" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H99" s="24" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I99" s="27"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="48"/>
+      <c r="A100" s="61"/>
       <c r="B100" s="37" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C100" s="24"/>
       <c r="D100" s="24"/>
       <c r="E100" s="24"/>
       <c r="F100" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G100" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H100" s="24" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I100" s="27"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="48"/>
+      <c r="A101" s="61"/>
       <c r="B101" s="37" t="s">
         <v>59</v>
       </c>
@@ -3909,18 +3917,18 @@
       <c r="D101" s="24"/>
       <c r="E101" s="24"/>
       <c r="F101" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G101" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H101" s="24" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I101" s="27"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102" s="48"/>
+      <c r="A102" s="61"/>
       <c r="B102" s="37" t="s">
         <v>60</v>
       </c>
@@ -3928,18 +3936,18 @@
       <c r="D102" s="24"/>
       <c r="E102" s="24"/>
       <c r="F102" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H102" s="24" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I102" s="27"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103" s="48"/>
+      <c r="A103" s="61"/>
       <c r="B103" s="37" t="s">
         <v>61</v>
       </c>
@@ -3947,18 +3955,18 @@
       <c r="D103" s="24"/>
       <c r="E103" s="24"/>
       <c r="F103" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G103" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I103" s="27"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="48"/>
+      <c r="A104" s="61"/>
       <c r="B104" s="37" t="s">
         <v>62</v>
       </c>
@@ -3966,18 +3974,18 @@
       <c r="D104" s="24"/>
       <c r="E104" s="24"/>
       <c r="F104" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G104" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H104" s="24" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I104" s="27"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105" s="48"/>
+      <c r="A105" s="61"/>
       <c r="B105" s="37" t="s">
         <v>63</v>
       </c>
@@ -3985,18 +3993,18 @@
       <c r="D105" s="24"/>
       <c r="E105" s="24"/>
       <c r="F105" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H105" s="24" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I105" s="27"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106" s="48"/>
+      <c r="A106" s="61"/>
       <c r="B106" s="37" t="s">
         <v>64</v>
       </c>
@@ -4004,18 +4012,18 @@
       <c r="D106" s="24"/>
       <c r="E106" s="24"/>
       <c r="F106" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H106" s="24" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I106" s="27"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="48"/>
+      <c r="A107" s="61"/>
       <c r="B107" s="37" t="s">
         <v>65</v>
       </c>
@@ -4023,112 +4031,93 @@
       <c r="D107" s="24"/>
       <c r="E107" s="24"/>
       <c r="F107" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G107" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H107" s="24" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I107" s="27"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="48"/>
-      <c r="B108" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G108" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H108" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="I108" s="27"/>
+      <c r="A108" s="61"/>
+      <c r="B108" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" s="52"/>
+      <c r="D108" s="52"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="52"/>
+      <c r="I108" s="53"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="48"/>
-      <c r="B109" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C109" s="44"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="44"/>
-      <c r="F109" s="44"/>
-      <c r="G109" s="44"/>
-      <c r="H109" s="44"/>
-      <c r="I109" s="45"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A110" s="48"/>
-      <c r="B110" s="37" t="s">
+      <c r="A109" s="61"/>
+      <c r="B109" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H109" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I109" s="26"/>
+    </row>
+    <row r="110" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="61"/>
+      <c r="B110" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="H110" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="I110" s="26"/>
-    </row>
-    <row r="111" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="48"/>
-      <c r="B111" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G111" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="H111" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="I111" s="29"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G110" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H110" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="I110" s="29"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A111" s="61"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A112" s="48"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A113" s="49"/>
+      <c r="A112" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B108:I108"/>
+    <mergeCell ref="A44:A112"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="B82:I82"/>
+    <mergeCell ref="B93:I93"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B75:I75"/>
     <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A22:A37"/>
-    <mergeCell ref="B98:I98"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B80:I80"/>
-    <mergeCell ref="B109:I109"/>
-    <mergeCell ref="A45:A113"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A21:A36"/>
     <mergeCell ref="B97:I97"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B83:I83"/>
-    <mergeCell ref="B94:I94"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B79:I79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
